--- a/Resultados/Mercado mundial - Limones y limas.xlsx
+++ b/Resultados/Mercado mundial - Limones y limas.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="India" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Mexico" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="China, mainland" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Türkiye" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Argentina" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="India" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="México" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="China, Continental" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Türkiye" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Argentina" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
@@ -227,7 +227,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -307,7 +307,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -407,13 +406,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -433,21 +432,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Mundial'!$B$12:$B$73</f>
+              <f>'Mundial'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Mundial'!$C$12:$C$73</f>
+              <f>'Mundial'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -489,13 +488,13 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -515,21 +514,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países productores'!$B$12:$B$22</f>
+              <f>'Países productores'!$B$12:$B$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países productores'!$C$12:$C$22</f>
+              <f>'Países productores'!$C$12:$C$23</f>
             </numRef>
           </val>
         </ser>
@@ -571,18 +570,18 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Exportaciones (Miles de Toneladas)</a:t>
+              <a:t>Exportaciones (Millones de Toneladas)</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -597,21 +596,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países exportadores'!$B$12:$B$22</f>
+              <f>'Países exportadores'!$B$12:$B$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países exportadores'!$C$12:$C$22</f>
+              <f>'Países exportadores'!$C$12:$C$23</f>
             </numRef>
           </val>
         </ser>
@@ -640,7 +639,7 @@
         <delete val="0"/>
         <axPos val="l"/>
         <majorGridlines/>
-        <numFmt formatCode="#,##0.00," sourceLinked="0"/>
+        <numFmt formatCode="#,##0.00,," sourceLinked="0"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <crossAx val="10"/>
@@ -653,13 +652,13 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -679,10 +678,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -735,13 +734,13 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -761,21 +760,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'India'!$B$12:$B$73</f>
+              <f>'India'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'India'!$C$12:$C$73</f>
+              <f>'India'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -817,13 +816,13 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -843,21 +842,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Mexico'!$B$12:$B$73</f>
+              <f>'México'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Mexico'!$C$12:$C$73</f>
+              <f>'México'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -899,13 +898,13 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -925,21 +924,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'China, mainland'!$B$12:$B$73</f>
+              <f>'China, Continental'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'China, mainland'!$C$12:$C$73</f>
+              <f>'China, Continental'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -981,13 +980,13 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1007,21 +1006,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Türkiye'!$B$12:$B$73</f>
+              <f>'Türkiye'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Türkiye'!$C$12:$C$73</f>
+              <f>'Türkiye'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1063,13 +1062,13 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1089,21 +1088,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Argentina'!$B$12:$B$73</f>
+              <f>'Argentina'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Argentina'!$C$12:$C$73</f>
+              <f>'Argentina'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1145,7 +1144,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1163,26 +1162,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="8128000" y="206375"/>
           <a:ext cx="2524125" cy="673100"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1203,9 +1202,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1215,7 +1214,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1233,26 +1232,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="7937500" y="244475"/>
           <a:ext cx="2524125" cy="695325"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1273,9 +1272,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1285,7 +1284,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1303,26 +1302,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="7981950" y="219075"/>
           <a:ext cx="2524125" cy="685800"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1343,9 +1342,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1355,7 +1354,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1373,26 +1372,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="10175875" y="79375"/>
           <a:ext cx="2524125" cy="682625"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1413,9 +1412,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1425,7 +1424,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1440,9 +1439,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1462,13 +1461,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1477,7 +1476,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1492,9 +1491,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1514,13 +1513,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1529,7 +1528,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1544,9 +1543,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1566,13 +1565,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1581,7 +1580,7 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1596,9 +1595,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1618,13 +1617,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1633,7 +1632,7 @@
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1648,9 +1647,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1670,13 +1669,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -2011,8 +2010,8 @@
   </sheetPr>
   <dimension ref="B2:L124"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" zoomScale="69" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2060,7 +2059,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -2139,10 +2138,10 @@
         <v>1388251</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>17.0318</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>23644474.94</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>17.0318</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>4006199.48</v>
@@ -2161,10 +2160,10 @@
         <v>1360337</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>16.2034</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>22042097.42</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>16.2034</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>3978578.83</v>
@@ -2183,10 +2182,10 @@
         <v>1345569</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>15.9419</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>21450912.46</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>15.9419</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>4022990.56</v>
@@ -2205,10 +2204,10 @@
         <v>1278191</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>15.858</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>20269541.21</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>15.858</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>3967097.36</v>
@@ -2227,10 +2226,10 @@
         <v>1246960</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>15.6177</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>19474663.46</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>15.6177</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>3634323.91</v>
@@ -2249,10 +2248,10 @@
         <v>1167157</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>16.7078</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>19500618.74</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>16.7078</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>3550148.89</v>
@@ -2271,10 +2270,10 @@
         <v>1105732</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>15.8079</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>17479321.83</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>15.8079</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>3376490.79</v>
@@ -2293,10 +2292,10 @@
         <v>1059321</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>16.1423</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>17099876.71</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>16.1423</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>3124595.92</v>
@@ -2315,10 +2314,10 @@
         <v>1059411</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>16.0576</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>17011559</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>16.0576</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>2955933.87</v>
@@ -2337,10 +2336,10 @@
         <v>1020185</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>15.6314</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>15946971.16</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>15.6314</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>2651697.17</v>
@@ -2359,10 +2358,10 @@
         <v>999642</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>15.4508</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>15445288.3</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>15.4508</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>2581342</v>
@@ -2381,10 +2380,10 @@
         <v>970352</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>15.4932</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>15033862.29</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>15.4932</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>2507066</v>
@@ -2403,10 +2402,10 @@
         <v>952713</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>15.8091</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>15061568.98</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>15.8091</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>2391119</v>
@@ -2425,10 +2424,10 @@
         <v>1037453</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>14.1864</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>14717746.07</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>14.1864</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>2290194</v>
@@ -2447,10 +2446,10 @@
         <v>1109649</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>14.8113</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>16435322.65</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>14.8113</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>2225595</v>
@@ -2469,10 +2468,10 @@
         <v>1075543</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>15.6566</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>16839375.16</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>15.6566</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>2144878</v>
@@ -2491,10 +2490,10 @@
         <v>1007099</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>15.9553</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>16068588.09</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>15.9553</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>2126729</v>
@@ -2513,10 +2512,10 @@
         <v>983138</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>13.7206</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>13489267.87</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>13.7206</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>2024331</v>
@@ -2535,10 +2534,10 @@
         <v>760657</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>16.2159</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>12334762.49</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>16.2159</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>1956936</v>
@@ -2557,10 +2556,10 @@
         <v>834966</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>14.7068</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>12279695.42</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>14.7068</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>1831270</v>
@@ -2579,10 +2578,10 @@
         <v>815635</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>15.1785</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>12380107.94</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>15.1785</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>1748046</v>
@@ -2601,10 +2600,10 @@
         <v>817322</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>14.6056</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>11937495.38</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>14.6056</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>1707132</v>
@@ -2623,10 +2622,10 @@
         <v>806971</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>14.2876</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>11529698.47</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>14.2876</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>1522678</v>
@@ -2645,10 +2644,10 @@
         <v>788479</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>13.7299</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>10825702.9</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>13.7299</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>1449548.9</v>
@@ -2667,10 +2666,10 @@
         <v>737394</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>13.5354</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>9980936.970000001</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>13.5354</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>1424150.2</v>
@@ -2689,10 +2688,10 @@
         <v>707875</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>13.0488</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>9236920.34</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>13.0488</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>1343925.31</v>
@@ -2711,10 +2710,10 @@
         <v>686704</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>13.3655</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>9178168.199999999</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>13.3655</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>1265828.99</v>
@@ -2733,10 +2732,10 @@
         <v>645748</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>13.4815</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>8705677.939999999</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>13.4815</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>1211657</v>
@@ -2755,10 +2754,10 @@
         <v>620015</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>13.2056</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>8187669.23</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>13.2056</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>1228839.11</v>
@@ -2777,10 +2776,10 @@
         <v>597842</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>13.5025</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>8072337.66</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>13.5025</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>1217032.04</v>
@@ -2799,10 +2798,10 @@
         <v>587572</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>13.7806</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>8097082.12</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>13.7806</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>1055476</v>
@@ -2821,10 +2820,10 @@
         <v>583919</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>13.2101</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>7713624.09</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>13.2101</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>1005743</v>
@@ -2843,10 +2842,10 @@
         <v>561316</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>13.6114</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>7640287.19</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>13.6114</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>964841</v>
@@ -2865,10 +2864,10 @@
         <v>563643</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>12.8648</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>7251152.64</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>12.8648</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>1005385</v>
@@ -2887,10 +2886,10 @@
         <v>565760</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>12.5757</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>7114820</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>12.5757</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>1046699</v>
@@ -2909,10 +2908,10 @@
         <v>551361</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>12.8088</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>7062261</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>12.8088</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>1053303</v>
@@ -2931,10 +2930,10 @@
         <v>530980</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>13.4251</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>7128459</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>13.4251</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>997213</v>
@@ -2953,10 +2952,10 @@
         <v>516495</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>12.8935</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>6659427</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>12.8935</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>1016067</v>
@@ -2975,10 +2974,10 @@
         <v>499080</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>12.6222</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>6299496</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>12.6222</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>1007976</v>
@@ -2997,10 +2996,10 @@
         <v>450301</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>12.9528</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>5832671</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>12.9528</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>995960</v>
@@ -3019,10 +3018,10 @@
         <v>435407</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>14.1062</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>6141937</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>14.1062</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>1002349</v>
@@ -3041,10 +3040,10 @@
         <v>430705</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>13.48</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>5805918</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>13.48</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>1048809</v>
@@ -3063,10 +3062,10 @@
         <v>410247</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>14.4153</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>5913830</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>14.4153</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>969475</v>
@@ -3085,10 +3084,10 @@
         <v>393630</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>13.0497</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>5136744</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>13.0497</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>990643</v>
@@ -3107,10 +3106,10 @@
         <v>352623</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>13.5956</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>4794109</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>13.5956</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>964075</v>
@@ -3129,10 +3128,10 @@
         <v>339880</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>13.9572</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>4743765</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>13.9572</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>960837</v>
@@ -3151,10 +3150,10 @@
         <v>333169</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>14.8282</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>4940311</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>14.8282</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>911406</v>
@@ -3173,10 +3172,10 @@
         <v>330526</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>13.6058</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>4497072</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>13.6058</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>922776</v>
@@ -3195,10 +3194,10 @@
         <v>325719</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>15.4386</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>5028649</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>15.4386</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>829274</v>
@@ -3217,10 +3216,10 @@
         <v>320936</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>13.9307</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>4470869</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>13.9307</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>836120</v>
@@ -3239,10 +3238,10 @@
         <v>307425</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>14.1565</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>4352059</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>14.1565</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>777268</v>
@@ -3261,10 +3260,10 @@
         <v>302155</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>13.0109</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>3931294</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>13.0109</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>733120</v>
@@ -3283,10 +3282,10 @@
         <v>295253</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>13.2369</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>3908247</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>13.2369</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>751547</v>
@@ -3305,10 +3304,10 @@
         <v>263337</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>13.2877</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>3499148</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>13.2877</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>697508</v>
@@ -3327,10 +3326,10 @@
         <v>251085</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>13.7729</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>3458181</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>13.7729</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>693971</v>
@@ -3349,10 +3348,10 @@
         <v>248765</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>13.4969</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>3357561</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>13.4969</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>661063</v>
@@ -3371,10 +3370,10 @@
         <v>247738</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>13.14</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>3255281</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>13.14</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>650982</v>
@@ -3392,10 +3391,10 @@
         <v>239129</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>12.9808</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>3104094</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>12.9808</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>643899</v>
@@ -3413,10 +3412,10 @@
         <v>248719</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>11.9398</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>2969665</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>11.9398</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>603829</v>
@@ -3434,10 +3433,10 @@
         <v>243763</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>12.5089</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>3049200</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>12.5089</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>578393</v>
@@ -3455,10 +3454,10 @@
         <v>235552</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>11.5166</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>2712760</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>11.5166</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>464522</v>
@@ -3476,10 +3475,10 @@
         <v>221240</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>11.8835</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>2629099</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>11.8835</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>511498</v>
@@ -3497,10 +3496,10 @@
         <v>205512</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>12.7474</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>2619738</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>12.7474</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>464059</v>
@@ -3787,8 +3786,8 @@
   </sheetPr>
   <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3897,7 +3896,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>México</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -3911,7 +3910,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>China, mainland</t>
+          <t>China, Continental</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -3953,7 +3952,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -3967,7 +3966,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>España</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -3981,7 +3980,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Estados Unidos de América</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -3995,7 +3994,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Sudáfrica</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4117,7 +4116,7 @@
   <dimension ref="B2:K45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4216,7 +4215,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>México</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4244,7 +4243,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>España</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4258,7 +4257,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Sudáfrica</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4272,7 +4271,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Netherlands (Kingdom of the)</t>
+          <t>Países Bajos (Reino de los)</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4300,7 +4299,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Egipto</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4314,7 +4313,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4328,7 +4327,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Estados Unidos de América</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4538,8 +4537,8 @@
   </sheetPr>
   <dimension ref="B2:K36"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4634,7 +4633,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Estados Unidos de América</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4648,7 +4647,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Netherlands (Kingdom of the)</t>
+          <t>Países Bajos (Reino de los)</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4662,7 +4661,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Russian Federation</t>
+          <t>Federación de Rusia</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4676,7 +4675,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Alemania</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4704,7 +4703,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Francia</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4718,7 +4717,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>United Kingdom of Great Britain and Northern Ireland</t>
+          <t>Reino Unido de Gran Bretaña e Irlanda del Norte</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4732,7 +4731,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Polonia</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4746,7 +4745,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Arabia Saudita</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4760,7 +4759,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>Emiratos Árabes Unidos</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4774,43 +4773,35 @@
     <row r="22">
       <c r="B22" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Otros</t>
         </is>
       </c>
       <c r="C22" s="29" t="n">
-        <v>36074.24</v>
+        <v>1396807.8</v>
       </c>
       <c r="D22" s="31" t="n">
-        <v>0.009004604034345288</v>
+        <v>0.3486615698926704</v>
       </c>
       <c r="E22" s="29" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="29" t="inlineStr">
         <is>
-          <t>Otros</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C23" s="29" t="n">
-        <v>1360733.56</v>
+        <v>4006199.48</v>
       </c>
       <c r="D23" s="31" t="n">
-        <v>0.3396569658583251</v>
+        <v>1</v>
       </c>
       <c r="E23" s="29" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="29" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C24" s="29" t="n">
-        <v>4006199.48</v>
-      </c>
-      <c r="D24" s="31" t="n">
-        <v>1</v>
-      </c>
+      <c r="B24" s="29" t="n"/>
+      <c r="C24" s="29" t="n"/>
+      <c r="D24" s="31" t="n"/>
       <c r="E24" s="29" t="n"/>
     </row>
     <row r="25">
@@ -4820,59 +4811,58 @@
       <c r="E25" s="29" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="29" t="n"/>
+      <c r="B26" s="15" t="n"/>
       <c r="C26" s="37" t="n"/>
-      <c r="D26" s="31" t="n"/>
-      <c r="E26" s="29" t="n"/>
+      <c r="D26" s="34" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="15" t="n"/>
-      <c r="C27" s="38" t="n"/>
+      <c r="C27" s="37" t="n"/>
       <c r="D27" s="34" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="15" t="n"/>
-      <c r="C28" s="38" t="n"/>
+      <c r="C28" s="37" t="n"/>
       <c r="D28" s="34" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="15" t="n"/>
-      <c r="C29" s="38" t="n"/>
+      <c r="C29" s="37" t="n"/>
       <c r="D29" s="34" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="15" t="n"/>
-      <c r="C30" s="38" t="n"/>
+      <c r="C30" s="37" t="n"/>
       <c r="D30" s="34" t="n"/>
     </row>
     <row r="31">
       <c r="B31" s="15" t="n"/>
-      <c r="C31" s="38" t="n"/>
+      <c r="C31" s="37" t="n"/>
       <c r="D31" s="34" t="n"/>
     </row>
     <row r="32">
       <c r="B32" s="15" t="n"/>
-      <c r="C32" s="38" t="n"/>
+      <c r="C32" s="37" t="n"/>
       <c r="D32" s="34" t="n"/>
     </row>
     <row r="33">
       <c r="B33" s="15" t="n"/>
-      <c r="C33" s="38" t="n"/>
+      <c r="C33" s="37" t="n"/>
       <c r="D33" s="34" t="n"/>
     </row>
     <row r="34">
       <c r="B34" s="15" t="n"/>
-      <c r="C34" s="38" t="n"/>
+      <c r="C34" s="37" t="n"/>
       <c r="D34" s="34" t="n"/>
     </row>
     <row r="35">
       <c r="B35" s="15" t="n"/>
-      <c r="C35" s="38" t="n"/>
+      <c r="C35" s="37" t="n"/>
       <c r="D35" s="36" t="n"/>
     </row>
     <row r="36">
       <c r="B36" s="15" t="n"/>
-      <c r="C36" s="38" t="n"/>
+      <c r="C36" s="37" t="n"/>
       <c r="D36" s="36" t="n"/>
     </row>
   </sheetData>
@@ -4942,7 +4932,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -5021,10 +5011,10 @@
         <v>312000</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>12.1378</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>3787000</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>12.1378</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>146.44</v>
@@ -5043,10 +5033,10 @@
         <v>313000</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>12.0639</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>3776000</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>12.0639</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>476.58</v>
@@ -5065,10 +5055,10 @@
         <v>327000</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>10.8502</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>3548000</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>10.8502</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>41.23</v>
@@ -5087,10 +5077,10 @@
         <v>322000</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>11.4503</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>3687000</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>11.4503</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>101.84</v>
@@ -5109,10 +5099,10 @@
         <v>305000</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>11.4164</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>3482000</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>11.4164</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>104.64</v>
@@ -5131,10 +5121,10 @@
         <v>286000</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>11.007</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>3148000</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>11.007</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>37.22</v>
@@ -5153,10 +5143,10 @@
         <v>248000</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>9.532299999999999</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>2364000</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>9.532299999999999</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>40.41</v>
@@ -5175,10 +5165,10 @@
         <v>245000</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>9.951000000000001</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>2438000</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>9.951000000000001</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>20.29</v>
@@ -5197,10 +5187,10 @@
         <v>268000</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>11.0075</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>2950000</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>11.0075</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>12.58</v>
@@ -5219,10 +5209,10 @@
         <v>286410</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>9.8985</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>2835020</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>9.8985</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>19.64</v>
@@ -5241,10 +5231,10 @@
         <v>255200</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>9.888299999999999</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>2523500</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>9.888299999999999</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>22</v>
@@ -5263,10 +5253,10 @@
         <v>234000</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>9.7098</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>2272100</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>9.7098</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>18</v>
@@ -5285,10 +5275,10 @@
         <v>219000</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>9.6256</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>2108000</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>9.6256</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>4</v>
@@ -5307,10 +5297,10 @@
         <v>295600</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>8.894500000000001</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>2629200</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>8.894500000000001</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>2</v>
@@ -5329,10 +5319,10 @@
         <v>316050</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>8.1365</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>2571530</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>8.1365</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>7</v>
@@ -5351,10 +5341,10 @@
         <v>302800</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>8.261899999999999</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>2501700</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>8.261899999999999</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>0</v>
@@ -5373,10 +5363,10 @@
         <v>294900</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>7.8338</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>2310200</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>7.8338</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>22</v>
@@ -5395,10 +5385,10 @@
         <v>268700</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>8.035</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>2159000</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>8.035</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>0</v>
@@ -5417,10 +5407,10 @@
         <v>78900</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>13.0938</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>1033100</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>13.0938</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>0</v>
@@ -5439,10 +5429,10 @@
         <v>167800</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>8.899299999999998</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>1493300</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>8.899299999999998</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>0</v>
@@ -5461,10 +5451,10 @@
         <v>146200</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>9.8468</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>1439600</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>9.8468</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>1</v>
@@ -5483,10 +5473,10 @@
         <v>161300</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>8.7644</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>1413700</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>8.7644</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>0</v>
@@ -5505,10 +5495,10 @@
         <v>164200</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>8.3873</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>1377200</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>8.3873</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>0</v>
@@ -5527,10 +5517,10 @@
         <v>169300</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>8.809799999999999</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>1491500</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>8.809799999999999</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>1</v>
@@ -5549,10 +5539,10 @@
         <v>139500</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>9.030799999999999</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>1259800</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>9.030799999999999</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>25.14</v>
@@ -5571,10 +5561,10 @@
         <v>129800</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>8.4846</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>1101300</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>8.4846</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>0</v>
@@ -5593,10 +5583,10 @@
         <v>123700</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>8.475299999999999</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>1048400</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>8.475299999999999</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>0</v>
@@ -5615,10 +5605,10 @@
         <v>106000</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>8.679200000000002</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>920000</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>8.679200000000002</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>0</v>
@@ -5637,10 +5627,10 @@
         <v>95900</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>10.1157</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>970100</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>10.1157</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>0</v>
@@ -5659,10 +5649,10 @@
         <v>91400</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>10.1061</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>923700</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>10.1061</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>0</v>
@@ -5681,10 +5671,10 @@
         <v>80000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>11.625</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>930000</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>11.625</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>0</v>
@@ -5703,10 +5693,10 @@
         <v>74000</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>9.4595</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>700000</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>9.4595</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>0</v>
@@ -5725,10 +5715,10 @@
         <v>68000</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>11.7647</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>800000</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>11.7647</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>0</v>
@@ -5747,10 +5737,10 @@
         <v>65000</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>11.5692</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>752000</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>11.5692</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>0</v>
@@ -5769,10 +5759,10 @@
         <v>60000</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>690000</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>11.5</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>0</v>
@@ -5791,10 +5781,10 @@
         <v>59000</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>10.1695</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>600000</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>10.1695</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>0</v>
@@ -5813,10 +5803,10 @@
         <v>56000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>10.7143</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>600000</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>10.7143</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -5835,10 +5825,10 @@
         <v>55000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>10.9091</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>600000</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>10.9091</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -5857,10 +5847,10 @@
         <v>50000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>9</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>450000</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>9</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -5879,10 +5869,10 @@
         <v>53000</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>10.3774</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>550000</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>10.3774</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -5901,10 +5891,10 @@
         <v>50000</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>10</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>500000</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>10</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -5923,10 +5913,10 @@
         <v>53000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>9.433999999999999</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>500000</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>9.433999999999999</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>2</v>
@@ -5945,10 +5935,10 @@
         <v>52000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>9.615399999999999</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>500000</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>9.615399999999999</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>6</v>
@@ -5967,10 +5957,10 @@
         <v>50000</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>485000</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>9.699999999999999</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>4</v>
@@ -5989,10 +5979,10 @@
         <v>50000</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>480000</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>9.6</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>9</v>
@@ -6011,10 +6001,10 @@
         <v>50000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>10</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>500000</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>10</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>2</v>
@@ -6033,10 +6023,10 @@
         <v>45000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>8.8889</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>400000</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>8.8889</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -6055,10 +6045,10 @@
         <v>53000</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>11.3208</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>600000</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>11.3208</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -6077,10 +6067,10 @@
         <v>52000</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>9.615399999999999</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>500000</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>9.615399999999999</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>3</v>
@@ -6099,10 +6089,10 @@
         <v>50000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>9</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>450000</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>9</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -6121,10 +6111,10 @@
         <v>50000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>9</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>450000</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>9</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>22</v>
@@ -6143,10 +6133,10 @@
         <v>50000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>9</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>450000</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>9</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -6165,10 +6155,10 @@
         <v>50000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>9</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>450000</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>9</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -6187,10 +6177,10 @@
         <v>50000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>9</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>450000</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>9</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>4</v>
@@ -6209,10 +6199,10 @@
         <v>45000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>8.8889</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>400000</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>8.8889</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>1</v>
@@ -6231,10 +6221,10 @@
         <v>45000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>8.222200000000001</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>370000</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>8.222200000000001</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -6253,10 +6243,10 @@
         <v>52000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>8.653799999999999</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>450000</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>8.653799999999999</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>2</v>
@@ -6274,10 +6264,10 @@
         <v>50000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>9</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>450000</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>9</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -6295,10 +6285,10 @@
         <v>50000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>9</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>450000</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>9</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -6316,10 +6306,10 @@
         <v>48000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>9.375</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>450000</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>9.375</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -6337,10 +6327,10 @@
         <v>47000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>9.5745</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>450000</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>9.5745</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -6358,10 +6348,10 @@
         <v>47000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>9.5745</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>450000</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>9.5745</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -6379,10 +6369,10 @@
         <v>36000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>11.5278</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>415000</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>11.5278</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>84</v>
@@ -6718,7 +6708,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -6797,10 +6787,10 @@
         <v>210735</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>15.4185</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>3249216.79</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>15.4185</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>36074.24</v>
@@ -6819,10 +6809,10 @@
         <v>201795</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>15.4132</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>3110321.12</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>15.4132</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>13685.94</v>
@@ -6841,10 +6831,10 @@
         <v>195619</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>15.2532</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>2983802.19</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>15.2532</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>7579.12</v>
@@ -6863,10 +6853,10 @@
         <v>187481</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>15.3564</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>2879023.27</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>15.3564</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>2902.57</v>
@@ -6885,10 +6875,10 @@
         <v>183575</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>14.7179</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>2701827.72</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>14.7179</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>3409.04</v>
@@ -6907,10 +6897,10 @@
         <v>175826</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>14.4907</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>2547834.45</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>14.4907</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>3980.66</v>
@@ -6929,10 +6919,10 @@
         <v>172255</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>14.677</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>2528173.82</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>14.677</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>2927.53</v>
@@ -6951,10 +6941,10 @@
         <v>163466</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>14.8645</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>2429839.02</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>14.8645</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>2563.29</v>
@@ -6973,10 +6963,10 @@
         <v>161681</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>14.4901</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>2342779.55</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>14.4901</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>1610.14</v>
@@ -6995,10 +6985,10 @@
         <v>156429</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>14.0963</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>2205078.53</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>14.0963</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>2887.15</v>
@@ -7017,10 +7007,10 @@
         <v>151765</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>14.0924</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>2138737</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>14.0924</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>1214</v>
@@ -7039,10 +7029,10 @@
         <v>150684</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>13.7424</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>2070764</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>13.7424</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>1420</v>
@@ -7061,10 +7051,10 @@
         <v>151021</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>14.2215</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>2147740</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>14.2215</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>2398</v>
@@ -7083,10 +7073,10 @@
         <v>143869</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>13.1467</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>1891403</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>13.1467</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>602</v>
@@ -7105,10 +7095,10 @@
         <v>141752</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>14.0206</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>1987453</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>14.0206</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>453</v>
@@ -7127,10 +7117,10 @@
         <v>149653</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>14.9849</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>2242539</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>14.9849</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>364</v>
@@ -7149,10 +7139,10 @@
         <v>145632</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>13.2932</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>1935909</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>13.2932</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>841</v>
@@ -7171,10 +7161,10 @@
         <v>139761</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>13.3591</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>1867078</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>13.3591</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>572</v>
@@ -7193,10 +7183,10 @@
         <v>136966</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>13.1915</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>1806784</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>13.1915</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>682</v>
@@ -7215,10 +7205,10 @@
         <v>140824</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>13.6874</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>1927515</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>13.6874</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>991</v>
@@ -7237,10 +7227,10 @@
         <v>131668</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>13.3787</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>1761552</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>13.3787</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>1667</v>
@@ -7259,10 +7249,10 @@
         <v>127063</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>13.5767</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>1725090</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>13.5767</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>1480</v>
@@ -7281,10 +7271,10 @@
         <v>126281</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>12.6228</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>1594020</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>12.6228</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>1671</v>
@@ -7303,10 +7293,10 @@
         <v>122755</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>13.5328</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>1661220</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>13.5328</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>2404.59</v>
@@ -7325,10 +7315,10 @@
         <v>112045</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>12.2049</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>1367502</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>12.2049</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>1493</v>
@@ -7347,10 +7337,10 @@
         <v>106288</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>11.1612</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>1186298</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>11.1612</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>819</v>
@@ -7369,10 +7359,10 @@
         <v>98562</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>11.4286</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>1126422</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>11.4286</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>3169</v>
@@ -7391,10 +7381,10 @@
         <v>97977</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>11.5466</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>1131303</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>11.5466</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>2610</v>
@@ -7413,10 +7403,10 @@
         <v>89365</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>11.0123</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>984110</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>11.0123</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>1087</v>
@@ -7435,10 +7425,10 @@
         <v>83624</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>10.1554</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>849239</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>10.1554</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>433</v>
@@ -7457,10 +7447,10 @@
         <v>83149</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>9.1226</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>758535</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>9.1226</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>172</v>
@@ -7479,10 +7469,10 @@
         <v>80846</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>10.1045</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>816912</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>10.1045</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>248</v>
@@ -7501,10 +7491,10 @@
         <v>75382</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>9.8325</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>741193</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>9.8325</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>165</v>
@@ -7523,10 +7513,10 @@
         <v>72990</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>9.533799999999999</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>695871</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>9.533799999999999</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>94</v>
@@ -7545,10 +7535,10 @@
         <v>74632</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>10.7336</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>801067</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>10.7336</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>122</v>
@@ -7567,10 +7557,10 @@
         <v>75426</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>9.974299999999999</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>752325</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>9.974299999999999</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>102</v>
@@ -7589,10 +7579,10 @@
         <v>69818</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>10.514</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>734063</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>10.514</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>1959</v>
@@ -7611,10 +7601,10 @@
         <v>70757</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>10.6666</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>754738</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>10.6666</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>757</v>
@@ -7633,10 +7623,10 @@
         <v>72495</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>12.2677</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>889349</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>12.2677</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>3993</v>
@@ -7655,10 +7645,10 @@
         <v>72409</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>12.4168</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>899089</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>12.4168</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>3022</v>
@@ -7677,10 +7667,10 @@
         <v>75478</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>9.5009</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>717110</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>9.5009</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -7699,10 +7689,10 @@
         <v>74358</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>10.7285</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>797748</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>10.7285</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>344</v>
@@ -7721,10 +7711,10 @@
         <v>65402</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>9.9504</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>650777</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>9.9504</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>2194</v>
@@ -7743,10 +7733,10 @@
         <v>60985</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>9.881500000000001</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>602626</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>9.881500000000001</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>937</v>
@@ -7765,10 +7755,10 @@
         <v>54408</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>9.250299999999999</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>503288</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>9.250299999999999</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>447</v>
@@ -7787,10 +7777,10 @@
         <v>50769</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>8.940799999999999</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>453915</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>8.940799999999999</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>787</v>
@@ -7809,10 +7799,10 @@
         <v>53132</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>9.093999999999999</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>483184</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>9.093999999999999</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>726</v>
@@ -7831,10 +7821,10 @@
         <v>48705</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>9.5105</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>463207</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>9.5105</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>461</v>
@@ -7853,10 +7843,10 @@
         <v>50722</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>9.2325</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>468292</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>9.2325</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>447</v>
@@ -7875,10 +7865,10 @@
         <v>50949</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>9.2394</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>470739</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>9.2394</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>701</v>
@@ -7897,10 +7887,10 @@
         <v>51025</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>9.500200000000001</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>484750</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>9.500200000000001</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>94</v>
@@ -7919,10 +7909,10 @@
         <v>51124</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>9.318299999999999</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>476390</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>9.318299999999999</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>1092</v>
@@ -7941,10 +7931,10 @@
         <v>50970</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>10.0969</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>514640</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>10.0969</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>923</v>
@@ -7963,10 +7953,10 @@
         <v>26475</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>9.0916</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>240699</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>9.0916</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>1014</v>
@@ -7985,10 +7975,10 @@
         <v>24301</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>9.1906</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>223341</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>9.1906</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>1263</v>
@@ -8007,10 +7997,10 @@
         <v>22297</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>9.351899999999999</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>208520</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>9.351899999999999</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>1822</v>
@@ -8029,10 +8019,10 @@
         <v>22341</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>9.343399999999999</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>208741</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>9.343399999999999</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>2307</v>
@@ -8050,10 +8040,10 @@
         <v>23115</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>9.431100000000001</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>218000</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>9.431100000000001</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>2634</v>
@@ -8071,10 +8061,10 @@
         <v>22543</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>9.293100000000001</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>209495</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>9.293100000000001</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>2541</v>
@@ -8092,10 +8082,10 @@
         <v>22074</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>8.6364</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>190639</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>8.6364</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>2990</v>
@@ -8113,10 +8103,10 @@
         <v>19699</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>8.668299999999999</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>170757</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>8.668299999999999</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>3340</v>
@@ -8134,10 +8124,10 @@
         <v>18498</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>7.9894</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>147787</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>7.9894</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>2870</v>
@@ -8155,10 +8145,10 @@
         <v>16689</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>7.3498</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>122660</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>7.3498</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>2313</v>
@@ -8494,7 +8484,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -8573,10 +8563,10 @@
         <v>100106</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>23.7883</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>2381336.86</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>23.7883</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>15616.81</v>
@@ -8595,10 +8585,10 @@
         <v>100528</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>23.5952</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>2371992.15</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>23.5952</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>14365.71</v>
@@ -8617,10 +8607,10 @@
         <v>100964</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>23.768</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>2399715.11</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>23.768</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>15621.29</v>
@@ -8639,10 +8629,10 @@
         <v>101390</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>23.3979</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>2372303.33</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>23.3979</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>10696.7</v>
@@ -8661,10 +8651,10 @@
         <v>97801</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>23.9665</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>2343958</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>23.9665</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>10038.1</v>
@@ -8683,10 +8673,10 @@
         <v>99624</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>24.9225</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>2482884</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>24.9225</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>11043.99</v>
@@ -8705,10 +8695,10 @@
         <v>95860</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>23.8896</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>2290068</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>23.8896</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>13792.04</v>
@@ -8727,10 +8717,10 @@
         <v>97920</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>23.0691</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>2258922</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>23.0691</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>12065.37</v>
@@ -8749,10 +8739,10 @@
         <v>106000</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>20.7175</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>2196050</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>20.7175</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>14667.26</v>
@@ -8771,10 +8761,10 @@
         <v>96000</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>22.1927</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>2130500</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>22.1927</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>29811.49</v>
@@ -8793,10 +8783,10 @@
         <v>97000</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>20.7629</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>2014000</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>20.7629</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>9376</v>
@@ -8815,10 +8805,10 @@
         <v>92260</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>21.0554</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>1942570</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>21.0554</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>9010</v>
@@ -8837,10 +8827,10 @@
         <v>85000</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>20.8951</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>1776080</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>20.8951</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>7577</v>
@@ -8859,10 +8849,10 @@
         <v>115000</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>17.7435</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>2040500</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>17.7435</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>7767</v>
@@ -8881,10 +8871,10 @@
         <v>167000</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>21.9958</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>3673300</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>21.9958</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>8952</v>
@@ -8903,10 +8893,10 @@
         <v>124000</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>33.2944</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>4128500</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>33.2944</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>5307</v>
@@ -8925,10 +8915,10 @@
         <v>62000</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>58.871</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>3650000</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>58.871</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>6008</v>
@@ -8947,10 +8937,10 @@
         <v>55000</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>12.7273</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>700000</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>12.7273</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>4570</v>
@@ -8969,10 +8959,10 @@
         <v>50000</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>12.92</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>646000</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>12.92</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>5275</v>
@@ -8991,10 +8981,10 @@
         <v>50300</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>12.5646</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>632000</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>12.5646</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>6530</v>
@@ -9013,10 +9003,10 @@
         <v>47500</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>11.8947</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>565000</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>11.8947</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>4956</v>
@@ -9035,10 +9025,10 @@
         <v>41000</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>12.1951</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>500000</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>12.1951</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>3914</v>
@@ -9057,10 +9047,10 @@
         <v>40000</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>376000</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>9.4</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>5040</v>
@@ -9079,10 +9069,10 @@
         <v>38000</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>7.3421</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>279000</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>7.3421</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>4837.24</v>
@@ -9101,10 +9091,10 @@
         <v>32000</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>10.8125</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>346000</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>10.8125</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>2482</v>
@@ -9123,10 +9113,10 @@
         <v>28000</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>9.821399999999999</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>275000</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>9.821399999999999</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>494</v>
@@ -9145,10 +9135,10 @@
         <v>29450</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>7.4703</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>220000</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>7.4703</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>511</v>
@@ -9167,10 +9157,10 @@
         <v>27000</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>7.1111</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>192000</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>7.1111</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>915</v>
@@ -9189,10 +9179,10 @@
         <v>25000</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>189000</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>7.56</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>211</v>
@@ -9211,10 +9201,10 @@
         <v>20000</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>155000</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>7.75</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>274</v>
@@ -9233,10 +9223,10 @@
         <v>21000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>7.1429</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>150000</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>7.1429</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>59</v>
@@ -9255,10 +9245,10 @@
         <v>26000</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>4.4615</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>116000</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>4.4615</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>101</v>
@@ -9277,10 +9267,10 @@
         <v>18000</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>7.9167</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>142500</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>7.9167</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>66</v>
@@ -9299,10 +9289,10 @@
         <v>24000</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>4.5833</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>110000</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>4.5833</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>6</v>
@@ -9321,10 +9311,10 @@
         <v>29000</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>3.5517</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>103000</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>3.5517</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>41</v>
@@ -9343,10 +9333,10 @@
         <v>15000</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>3.8667</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>58000</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>3.8667</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>16</v>
@@ -9365,10 +9355,10 @@
         <v>20000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>74000</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>3.7</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>17</v>
@@ -9387,10 +9377,10 @@
         <v>15000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>3.9333</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>59000</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>3.9333</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>494</v>
@@ -9409,10 +9399,10 @@
         <v>17000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>2.4412</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>41500</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>2.4412</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -9431,10 +9421,10 @@
         <v>11000</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>3.0909</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>34000</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>3.0909</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -9453,10 +9443,10 @@
         <v>10000</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>3</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>30000</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>3</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -9475,10 +9465,10 @@
         <v>7300</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>3.0137</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>22000</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>3.0137</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -9497,10 +9487,10 @@
         <v>6000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>3</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>18000</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>3</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -9519,10 +9509,10 @@
         <v>5500</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>2.9091</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>16000</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>2.9091</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -9541,10 +9531,10 @@
         <v>4500</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>2.8889</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>13000</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>2.8889</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -9563,10 +9553,10 @@
         <v>3100</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>2.9032</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>9000</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>2.9032</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -9585,10 +9575,10 @@
         <v>3100</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>2.9032</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>9000</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>2.9032</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -9607,10 +9597,10 @@
         <v>2100</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>2.8571</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>6000</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>2.8571</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -9629,10 +9619,10 @@
         <v>3100</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>2.5806</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>8000</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>2.5806</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -9651,10 +9641,10 @@
         <v>3100</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>2.5806</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>8000</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>2.5806</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -9673,10 +9663,10 @@
         <v>2700</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>2.5926</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>7000</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>2.5926</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -9695,10 +9685,10 @@
         <v>2700</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>2.5926</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>7000</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>2.5926</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -9717,10 +9707,10 @@
         <v>2100</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>2.619</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>5500</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>2.619</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -9739,10 +9729,10 @@
         <v>2400</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>6000</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>2.5</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -9761,10 +9751,10 @@
         <v>2400</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>6000</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>2.5</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -9783,10 +9773,10 @@
         <v>2400</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>6000</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>2.5</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -9805,10 +9795,10 @@
         <v>2400</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>6000</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>2.5</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -9826,10 +9816,10 @@
         <v>2400</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>6000</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>2.5</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -9847,10 +9837,10 @@
         <v>2400</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>6000</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>2.5</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -9868,10 +9858,10 @@
         <v>2400</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>6000</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>2.5</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -9889,10 +9879,10 @@
         <v>1600</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>4000</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>2.5</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -9910,10 +9900,10 @@
         <v>2000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>5000</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>2.5</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -9931,10 +9921,10 @@
         <v>1600</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>4000</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>2.5</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -10270,7 +10260,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -10349,10 +10339,10 @@
         <v>56439</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>41.20780000000001</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>2325726</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>41.20780000000001</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>4172.26</v>
@@ -10371,10 +10361,10 @@
         <v>55426</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>23.8697</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>1323000</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>23.8697</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>5742.06</v>
@@ -10393,10 +10383,10 @@
         <v>52233</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>29.6747</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>1550000</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>29.6747</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>3878.47</v>
@@ -10415,10 +10405,10 @@
         <v>46935</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>25.3226</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>1188517</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>25.3226</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>3304.3</v>
@@ -10437,10 +10427,10 @@
         <v>40155</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>23.6583</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>950000</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>23.6583</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>2452.99</v>
@@ -10459,10 +10449,10 @@
         <v>35911</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>30.6313</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>1100000</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>30.6313</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>3185.2</v>
@@ -10481,10 +10471,10 @@
         <v>32428</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>31.0575</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>1007133</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>31.0575</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>4024.1</v>
@@ -10503,10 +10493,10 @@
         <v>30033</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>28.3222</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>850600</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>28.3222</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>3081.61</v>
@@ -10525,10 +10515,10 @@
         <v>28570</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>26.2706</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>750550</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>26.2706</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>2982.2</v>
@@ -10547,10 +10537,10 @@
         <v>27665</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>26.2147</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>725230</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>26.2147</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>2419.04</v>
@@ -10569,10 +10559,10 @@
         <v>27425</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>26.4825</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>726283</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>26.4825</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>1983</v>
@@ -10591,10 +10581,10 @@
         <v>26563</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>26.7369</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>710211</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>26.7369</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>3094</v>
@@ -10613,10 +10603,10 @@
         <v>24552</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>32.1852</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>790211</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>32.1852</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>670</v>
@@ -10635,10 +10625,10 @@
         <v>25360</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>31.0356</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>787063</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>31.0356</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>1722</v>
@@ -10657,10 +10647,10 @@
         <v>25083</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>31.2398</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>783587</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>31.2398</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>1808</v>
@@ -10679,10 +10669,10 @@
         <v>25161</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>26.726</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>672452</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>26.726</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>3137</v>
@@ -10701,10 +10691,10 @@
         <v>24535</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>26.5648</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>651767</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>26.5648</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>4949</v>
@@ -10723,10 +10713,10 @@
         <v>25164</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>28.2308</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>710401</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>28.2308</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>1988</v>
@@ -10745,10 +10735,10 @@
         <v>25000</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>24</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>600000</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>24</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>2560</v>
@@ -10767,10 +10757,10 @@
         <v>25000</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>24</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>600000</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>24</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>2661</v>
@@ -10789,10 +10779,10 @@
         <v>24500</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>22.449</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>550000</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>22.449</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>5801</v>
@@ -10811,10 +10801,10 @@
         <v>23850</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>22.0126</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>525000</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>22.0126</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>3659</v>
@@ -10833,10 +10823,10 @@
         <v>23330</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>21.8603</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>510000</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>21.8603</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>39</v>
@@ -10855,10 +10845,10 @@
         <v>23085</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>19.9264</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>460000</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>19.9264</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>19.73</v>
@@ -10877,10 +10867,10 @@
         <v>22266</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>23.354</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>520000</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>23.354</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>84</v>
@@ -10899,10 +10889,10 @@
         <v>21566</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>18.084</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>390000</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>18.084</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>25</v>
@@ -10921,10 +10911,10 @@
         <v>21727</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>12.4269</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>270000</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>12.4269</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>1889</v>
@@ -10943,10 +10933,10 @@
         <v>20976</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>19.1171</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>401000</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>19.1171</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>1522</v>
@@ -10965,10 +10955,10 @@
         <v>20553</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>20.3377</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>418000</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>20.3377</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>2019</v>
@@ -10987,10 +10977,10 @@
         <v>20492</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>22.9358</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>470000</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>22.9358</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>3829</v>
@@ -11009,10 +10999,10 @@
         <v>19837</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>22.1808</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>440000</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>22.1808</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>5784</v>
@@ -11031,10 +11021,10 @@
         <v>15500</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>27.0968</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>420000</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>27.0968</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>138</v>
@@ -11053,10 +11043,10 @@
         <v>15320</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>28.0026</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>429000</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>28.0026</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>344</v>
@@ -11075,10 +11065,10 @@
         <v>14967</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>23.8525</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>357000</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>23.8525</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>158</v>
@@ -11097,10 +11087,10 @@
         <v>14133</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>23.7034</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>335000</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>23.7034</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>0</v>
@@ -11119,10 +11109,10 @@
         <v>13940</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>25.825</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>360000</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>25.825</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>1893</v>
@@ -11141,10 +11131,10 @@
         <v>12800</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>26.5625</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>340000</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>26.5625</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>1063</v>
@@ -11163,10 +11153,10 @@
         <v>11667</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>26.5707</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>310000</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>26.5707</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>2256</v>
@@ -11185,10 +11175,10 @@
         <v>10993</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>17.1018</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>188000</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>17.1018</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -11207,10 +11197,10 @@
         <v>11850</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>26.7932</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>317500</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>26.7932</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>372</v>
@@ -11229,10 +11219,10 @@
         <v>11750</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>25.5319</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>300000</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>25.5319</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -11251,10 +11241,10 @@
         <v>11433</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>27.202</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>311000</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>27.202</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -11273,10 +11263,10 @@
         <v>11200</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>25.8929</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>290000</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>25.8929</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -11295,10 +11285,10 @@
         <v>10767</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>26.284</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>283000</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>26.284</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -11317,10 +11307,10 @@
         <v>10617</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>26.3728</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>280000</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>26.3728</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -11339,10 +11329,10 @@
         <v>10000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>243000</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>24.3</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -11361,10 +11351,10 @@
         <v>9333</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>34.8227</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>325000</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>34.8227</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -11383,10 +11373,10 @@
         <v>8333</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>33.3013</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>277500</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>33.3013</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -11405,10 +11395,10 @@
         <v>7667</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>37.8244</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>290000</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>37.8244</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -11427,10 +11417,10 @@
         <v>5733</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>46.2236</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>265000</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>46.2236</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -11449,10 +11439,10 @@
         <v>5300</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>23.0896</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>122375</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>23.0896</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -11471,10 +11461,10 @@
         <v>5283</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>28.2415</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>149200</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>28.2415</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -11493,10 +11483,10 @@
         <v>4993</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>28.3397</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>141500</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>28.3397</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -11515,10 +11505,10 @@
         <v>4787</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>26.3213</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>126000</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>26.3213</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -11537,10 +11527,10 @@
         <v>4697</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>25.8663</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>121494</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>25.8663</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -11559,10 +11549,10 @@
         <v>4637</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>28.0354</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>130000</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>28.0354</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -11581,10 +11571,10 @@
         <v>4917</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>18.3038</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>90000</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>18.3038</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -11602,10 +11592,10 @@
         <v>4667</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>18.1058</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>84500</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>18.1058</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -11623,10 +11613,10 @@
         <v>3637</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>21.5837</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>78500</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>21.5837</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -11644,10 +11634,10 @@
         <v>3400</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>10.9353</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>37180</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>10.9353</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -11665,10 +11655,10 @@
         <v>3023</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>26.092</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>78876</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>26.092</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -11686,10 +11676,10 @@
         <v>2917</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>25.5087</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>74409</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>25.5087</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -11707,10 +11697,10 @@
         <v>2877</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>24.4838</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>70440</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>24.4838</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -12046,7 +12036,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -12125,10 +12115,10 @@
         <v>58368</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>34.2359</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>1998272.53</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>34.2359</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>1450.21</v>
@@ -12147,10 +12137,10 @@
         <v>61497</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>34.8206</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>2141365</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>34.8206</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>2149.49</v>
@@ -12169,10 +12159,10 @@
         <v>59711</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>33.7624</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>2015989</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>33.7624</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>2225.11</v>
@@ -12191,10 +12181,10 @@
         <v>34392</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>33.4378</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>1150000</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>33.4378</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>3391.82</v>
@@ -12213,10 +12203,10 @@
         <v>50002</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>33.527</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>1676403</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>33.527</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>709.6900000000001</v>
@@ -12235,10 +12225,10 @@
         <v>57665</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>34.49930000000001</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>1989400</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>34.49930000000001</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>870.33</v>
@@ -12257,10 +12247,10 @@
         <v>53744</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>31.1849</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>1676000</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>31.1849</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>2898.15</v>
@@ -12279,10 +12269,10 @@
         <v>51926</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>32.3217</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>1678337</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>32.3217</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>3051.56</v>
@@ -12301,10 +12291,10 @@
         <v>50616</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>30.852</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>1561606</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>30.852</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>137.21</v>
@@ -12323,10 +12313,10 @@
         <v>29756</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>32.0574</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>953890</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>32.0574</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>118.08</v>
@@ -12345,10 +12335,10 @@
         <v>41000</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>36.243</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>1485963</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>36.243</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>966</v>
@@ -12367,10 +12357,10 @@
         <v>46794</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>31.1166</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>1456069</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>31.1166</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>331</v>
@@ -12389,10 +12379,10 @@
         <v>48628</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>36.1181</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>1756351</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>36.1181</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>1177</v>
@@ -12411,10 +12401,10 @@
         <v>43575</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>25.5508</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>1113375</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>25.5508</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>6524</v>
@@ -12433,10 +12423,10 @@
         <v>49601</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>28.74</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>1425529</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>28.74</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>4837</v>
@@ -12455,10 +12445,10 @@
         <v>53000</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>25.7017</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>1362190</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>25.7017</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>238</v>
@@ -12477,10 +12467,10 @@
         <v>55000</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>25.4545</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>1400000</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>25.4545</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>23</v>
@@ -12499,10 +12489,10 @@
         <v>55000</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>26.7273</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>1470000</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>26.7273</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>22</v>
@@ -12521,10 +12511,10 @@
         <v>52000</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>28.8156</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>1498410</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>28.8156</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>0</v>
@@ -12543,10 +12533,10 @@
         <v>45000</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>29.7811</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>1340150</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>29.7811</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>23</v>
@@ -12565,10 +12555,10 @@
         <v>44000</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>28.0973</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>1236280</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>28.0973</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>37</v>
@@ -12587,10 +12577,10 @@
         <v>42000</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>31.2683</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>1313270</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>31.2683</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>94</v>
@@ -12609,10 +12599,10 @@
         <v>40000</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>30.4417</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>1217666</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>30.4417</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>322</v>
@@ -12631,10 +12621,10 @@
         <v>34000</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>34.4558</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>1171498</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>34.4558</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>231.99</v>
@@ -12653,10 +12643,10 @@
         <v>38000</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>27.4383</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>1042657</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>27.4383</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>243</v>
@@ -12675,10 +12665,10 @@
         <v>38526</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>26.5009</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>1020975</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>26.5009</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>163</v>
@@ -12697,10 +12687,10 @@
         <v>36351</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>26.6502</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>968763</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>26.6502</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>194</v>
@@ -12719,10 +12709,10 @@
         <v>29832</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>26.8388</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>800654</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>26.8388</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>105</v>
@@ -12741,10 +12731,10 @@
         <v>27915</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>27.068</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>755604</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>27.068</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>59</v>
@@ -12763,10 +12753,10 @@
         <v>23165</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>29.4097</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>681275</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>29.4097</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>553</v>
@@ -12785,10 +12775,10 @@
         <v>22099</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>27.7026</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>612200</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>27.7026</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>3</v>
@@ -12807,10 +12797,10 @@
         <v>24974</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>26.4555</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>660700</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>26.4555</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>91</v>
@@ -12829,10 +12819,10 @@
         <v>23921</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>27.4236</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>656000</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>27.4236</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>0</v>
@@ -12851,10 +12841,10 @@
         <v>21123</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>25.2852</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>534100</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>25.2852</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>0</v>
@@ -12873,10 +12863,10 @@
         <v>21010</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>14.336</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>301200</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>14.336</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>0</v>
@@ -12895,10 +12885,10 @@
         <v>22600</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>22.854</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>516500</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>22.854</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>0</v>
@@ -12917,10 +12907,10 @@
         <v>21650</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>24.4018</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>528300</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>24.4018</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -12939,10 +12929,10 @@
         <v>21670</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>22.1966</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>481000</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>22.1966</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>35</v>
@@ -12961,10 +12951,10 @@
         <v>20750</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>22.1687</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>460000</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>22.1687</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>51</v>
@@ -12983,10 +12973,10 @@
         <v>20280</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>18.1262</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>367600</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>18.1262</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>46</v>
@@ -13005,10 +12995,10 @@
         <v>20100</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>17.7612</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>357000</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>17.7612</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -13027,10 +13017,10 @@
         <v>20850</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>18.4173</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>384000</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>18.4173</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -13049,10 +13039,10 @@
         <v>19600</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>20.8673</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>409000</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>20.8673</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>1208</v>
@@ -13071,10 +13061,10 @@
         <v>19220</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>20.6035</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>396000</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>20.6035</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>429</v>
@@ -13090,10 +13080,10 @@
         <v>1979</v>
       </c>
       <c r="C56" s="29" t="inlineStr"/>
-      <c r="D56" s="29" t="n">
+      <c r="D56" s="29" t="inlineStr"/>
+      <c r="E56" s="29" t="n">
         <v>301000</v>
       </c>
-      <c r="E56" s="29" t="inlineStr"/>
       <c r="F56" s="29" t="n">
         <v>666</v>
       </c>
@@ -13108,10 +13098,10 @@
         <v>1978</v>
       </c>
       <c r="C57" s="29" t="inlineStr"/>
-      <c r="D57" s="29" t="n">
+      <c r="D57" s="29" t="inlineStr"/>
+      <c r="E57" s="29" t="n">
         <v>280000</v>
       </c>
-      <c r="E57" s="29" t="inlineStr"/>
       <c r="F57" s="29" t="n">
         <v>196</v>
       </c>
@@ -13126,10 +13116,10 @@
         <v>1977</v>
       </c>
       <c r="C58" s="29" t="inlineStr"/>
-      <c r="D58" s="29" t="n">
+      <c r="D58" s="29" t="inlineStr"/>
+      <c r="E58" s="29" t="n">
         <v>320000</v>
       </c>
-      <c r="E58" s="29" t="inlineStr"/>
       <c r="F58" s="29" t="n">
         <v>0</v>
       </c>
@@ -13144,10 +13134,10 @@
         <v>1976</v>
       </c>
       <c r="C59" s="29" t="inlineStr"/>
-      <c r="D59" s="29" t="n">
+      <c r="D59" s="29" t="inlineStr"/>
+      <c r="E59" s="29" t="n">
         <v>247000</v>
       </c>
-      <c r="E59" s="29" t="inlineStr"/>
       <c r="F59" s="29" t="n">
         <v>0</v>
       </c>
@@ -13162,10 +13152,10 @@
         <v>1975</v>
       </c>
       <c r="C60" s="29" t="inlineStr"/>
-      <c r="D60" s="29" t="n">
+      <c r="D60" s="29" t="inlineStr"/>
+      <c r="E60" s="29" t="n">
         <v>339000</v>
       </c>
-      <c r="E60" s="29" t="inlineStr"/>
       <c r="F60" s="29" t="n">
         <v>0</v>
       </c>
@@ -13180,10 +13170,10 @@
         <v>1974</v>
       </c>
       <c r="C61" s="29" t="inlineStr"/>
-      <c r="D61" s="29" t="n">
+      <c r="D61" s="29" t="inlineStr"/>
+      <c r="E61" s="29" t="n">
         <v>306000</v>
       </c>
-      <c r="E61" s="29" t="inlineStr"/>
       <c r="F61" s="29" t="n">
         <v>0</v>
       </c>
@@ -13198,10 +13188,10 @@
         <v>1973</v>
       </c>
       <c r="C62" s="29" t="inlineStr"/>
-      <c r="D62" s="29" t="n">
+      <c r="D62" s="29" t="inlineStr"/>
+      <c r="E62" s="29" t="n">
         <v>232770</v>
       </c>
-      <c r="E62" s="29" t="inlineStr"/>
       <c r="F62" s="29" t="n">
         <v>0</v>
       </c>
@@ -13216,10 +13206,10 @@
         <v>1972</v>
       </c>
       <c r="C63" s="29" t="inlineStr"/>
-      <c r="D63" s="29" t="n">
+      <c r="D63" s="29" t="inlineStr"/>
+      <c r="E63" s="29" t="n">
         <v>186000</v>
       </c>
-      <c r="E63" s="29" t="inlineStr"/>
       <c r="F63" s="29" t="n">
         <v>0</v>
       </c>
@@ -13234,10 +13224,10 @@
         <v>1971</v>
       </c>
       <c r="C64" s="29" t="inlineStr"/>
-      <c r="D64" s="29" t="n">
+      <c r="D64" s="29" t="inlineStr"/>
+      <c r="E64" s="29" t="n">
         <v>198600</v>
       </c>
-      <c r="E64" s="29" t="inlineStr"/>
       <c r="F64" s="29" t="n">
         <v>0</v>
       </c>
@@ -13252,10 +13242,10 @@
         <v>1970</v>
       </c>
       <c r="C65" s="29" t="inlineStr"/>
-      <c r="D65" s="29" t="n">
+      <c r="D65" s="29" t="inlineStr"/>
+      <c r="E65" s="29" t="n">
         <v>202457</v>
       </c>
-      <c r="E65" s="29" t="inlineStr"/>
       <c r="F65" s="29" t="n">
         <v>31</v>
       </c>
@@ -13270,10 +13260,10 @@
         <v>1969</v>
       </c>
       <c r="C66" s="29" t="inlineStr"/>
-      <c r="D66" s="29" t="n">
+      <c r="D66" s="29" t="inlineStr"/>
+      <c r="E66" s="29" t="n">
         <v>194000</v>
       </c>
-      <c r="E66" s="29" t="inlineStr"/>
       <c r="F66" s="29" t="n">
         <v>0</v>
       </c>
@@ -13288,10 +13278,10 @@
         <v>1968</v>
       </c>
       <c r="C67" s="29" t="inlineStr"/>
-      <c r="D67" s="29" t="n">
+      <c r="D67" s="29" t="inlineStr"/>
+      <c r="E67" s="29" t="n">
         <v>179000</v>
       </c>
-      <c r="E67" s="29" t="inlineStr"/>
       <c r="F67" s="29" t="n">
         <v>10</v>
       </c>
@@ -13306,10 +13296,10 @@
         <v>1967</v>
       </c>
       <c r="C68" s="29" t="inlineStr"/>
-      <c r="D68" s="29" t="n">
+      <c r="D68" s="29" t="inlineStr"/>
+      <c r="E68" s="29" t="n">
         <v>74600</v>
       </c>
-      <c r="E68" s="29" t="inlineStr"/>
       <c r="F68" s="29" t="n">
         <v>13</v>
       </c>
@@ -13323,10 +13313,10 @@
         <v>1966</v>
       </c>
       <c r="C69" s="29" t="inlineStr"/>
-      <c r="D69" s="29" t="n">
+      <c r="D69" s="29" t="inlineStr"/>
+      <c r="E69" s="29" t="n">
         <v>89000</v>
       </c>
-      <c r="E69" s="29" t="inlineStr"/>
       <c r="F69" s="29" t="n">
         <v>300</v>
       </c>
@@ -13340,10 +13330,10 @@
         <v>1965</v>
       </c>
       <c r="C70" s="29" t="inlineStr"/>
-      <c r="D70" s="29" t="n">
+      <c r="D70" s="29" t="inlineStr"/>
+      <c r="E70" s="29" t="n">
         <v>70000</v>
       </c>
-      <c r="E70" s="29" t="inlineStr"/>
       <c r="F70" s="29" t="n">
         <v>642</v>
       </c>
@@ -13357,10 +13347,10 @@
         <v>1964</v>
       </c>
       <c r="C71" s="29" t="inlineStr"/>
-      <c r="D71" s="29" t="n">
+      <c r="D71" s="29" t="inlineStr"/>
+      <c r="E71" s="29" t="n">
         <v>79000</v>
       </c>
-      <c r="E71" s="29" t="inlineStr"/>
       <c r="F71" s="29" t="n">
         <v>87</v>
       </c>
@@ -13374,10 +13364,10 @@
         <v>1963</v>
       </c>
       <c r="C72" s="29" t="inlineStr"/>
-      <c r="D72" s="29" t="n">
+      <c r="D72" s="29" t="inlineStr"/>
+      <c r="E72" s="29" t="n">
         <v>79300</v>
       </c>
-      <c r="E72" s="29" t="inlineStr"/>
       <c r="F72" s="29" t="n">
         <v>472</v>
       </c>
@@ -13391,10 +13381,10 @@
         <v>1962</v>
       </c>
       <c r="C73" s="29" t="inlineStr"/>
-      <c r="D73" s="29" t="n">
+      <c r="D73" s="29" t="inlineStr"/>
+      <c r="E73" s="29" t="n">
         <v>82000</v>
       </c>
-      <c r="E73" s="29" t="inlineStr"/>
       <c r="F73" s="29" t="n">
         <v>200</v>
       </c>
@@ -13408,10 +13398,10 @@
         <v>1961</v>
       </c>
       <c r="C74" s="29" t="inlineStr"/>
-      <c r="D74" s="29" t="n">
+      <c r="D74" s="29" t="inlineStr"/>
+      <c r="E74" s="29" t="n">
         <v>86600</v>
       </c>
-      <c r="E74" s="29" t="inlineStr"/>
       <c r="F74" s="29" t="n">
         <v>393</v>
       </c>

--- a/Resultados/Mercado mundial - Limones y limas.xlsx
+++ b/Resultados/Mercado mundial - Limones y limas.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="India" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="México" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="China, Continental" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Türkiye" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Argentina" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="India" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Mexico" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="China, mainland" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Türkiye" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Argentina" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
@@ -227,7 +227,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -307,6 +307,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="4" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -406,13 +407,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -432,10 +433,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -488,13 +489,13 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -514,10 +515,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -570,13 +571,13 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -596,10 +597,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -652,13 +653,13 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -678,21 +679,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países importadores'!$B$12:$B$23</f>
+              <f>'Países importadores'!$B$12:$B$24</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países importadores'!$C$12:$C$23</f>
+              <f>'Países importadores'!$C$12:$C$24</f>
             </numRef>
           </val>
         </ser>
@@ -734,13 +735,13 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -760,10 +761,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -816,13 +817,13 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -842,21 +843,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'México'!$B$12:$B$74</f>
+              <f>'Mexico'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'México'!$C$12:$C$74</f>
+              <f>'Mexico'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -898,13 +899,13 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -924,21 +925,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'China, Continental'!$B$12:$B$74</f>
+              <f>'China, mainland'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'China, Continental'!$C$12:$C$74</f>
+              <f>'China, mainland'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -980,13 +981,13 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1006,10 +1007,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -1062,13 +1063,13 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1088,10 +1089,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -1144,7 +1145,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1162,26 +1163,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="8128000" y="206375"/>
           <a:ext cx="2524125" cy="673100"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1202,9 +1203,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1214,7 +1215,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1232,26 +1233,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="7937500" y="244475"/>
           <a:ext cx="2524125" cy="695325"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1272,9 +1273,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1284,7 +1285,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1302,26 +1303,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="7981950" y="219075"/>
           <a:ext cx="2524125" cy="685800"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1342,9 +1343,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1354,7 +1355,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1372,26 +1373,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="10175875" y="79375"/>
           <a:ext cx="2524125" cy="682625"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1412,9 +1413,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1424,7 +1425,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1439,9 +1440,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1461,13 +1462,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1476,7 +1477,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1491,9 +1492,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1513,13 +1514,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1528,7 +1529,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1543,9 +1544,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1565,13 +1566,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1580,7 +1581,7 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1595,9 +1596,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1617,13 +1618,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1632,7 +1633,7 @@
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1647,9 +1648,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1669,13 +1670,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -2010,8 +2011,8 @@
   </sheetPr>
   <dimension ref="B2:L124"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="69" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2059,7 +2060,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -2138,10 +2139,10 @@
         <v>1388251</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>23644474.94</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>17.0318</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>23644474.94</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>4006199.48</v>
@@ -2160,10 +2161,10 @@
         <v>1360337</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>22042097.42</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>16.2034</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>22042097.42</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>3978578.83</v>
@@ -2182,10 +2183,10 @@
         <v>1345569</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>21450912.46</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>15.9419</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>21450912.46</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>4022990.56</v>
@@ -2204,10 +2205,10 @@
         <v>1278191</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>20269541.21</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>15.858</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>20269541.21</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>3967097.36</v>
@@ -2226,10 +2227,10 @@
         <v>1246960</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>19474663.46</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>15.6177</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>19474663.46</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>3634323.91</v>
@@ -2248,10 +2249,10 @@
         <v>1167157</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>19500618.74</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>16.7078</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>19500618.74</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>3550148.89</v>
@@ -2270,10 +2271,10 @@
         <v>1105732</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>17479321.83</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>15.8079</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>17479321.83</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>3376490.79</v>
@@ -2292,10 +2293,10 @@
         <v>1059321</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>17099876.71</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>16.1423</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>17099876.71</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>3124595.92</v>
@@ -2314,10 +2315,10 @@
         <v>1059411</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>17011559</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>16.0576</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>17011559</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>2955933.87</v>
@@ -2336,10 +2337,10 @@
         <v>1020185</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>15946971.16</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>15.6314</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>15946971.16</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>2651697.17</v>
@@ -2358,10 +2359,10 @@
         <v>999642</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>15445288.3</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>15.4508</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>15445288.3</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>2581342</v>
@@ -2380,10 +2381,10 @@
         <v>970352</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>15033862.29</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>15.4932</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>15033862.29</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>2507066</v>
@@ -2402,10 +2403,10 @@
         <v>952713</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>15061568.98</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>15.8091</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>15061568.98</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>2391119</v>
@@ -2424,10 +2425,10 @@
         <v>1037453</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>14717746.07</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>14.1864</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>14717746.07</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>2290194</v>
@@ -2446,10 +2447,10 @@
         <v>1109649</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>16435322.65</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>14.8113</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>16435322.65</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>2225595</v>
@@ -2468,10 +2469,10 @@
         <v>1075543</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>16839375.16</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>15.6566</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>16839375.16</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>2144878</v>
@@ -2490,10 +2491,10 @@
         <v>1007099</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>16068588.09</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>15.9553</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>16068588.09</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>2126729</v>
@@ -2512,10 +2513,10 @@
         <v>983138</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>13489267.87</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>13.7206</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>13489267.87</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>2024331</v>
@@ -2534,10 +2535,10 @@
         <v>760657</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>12334762.49</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>16.2159</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>12334762.49</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>1956936</v>
@@ -2556,10 +2557,10 @@
         <v>834966</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>12279695.42</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>14.7068</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>12279695.42</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>1831270</v>
@@ -2578,10 +2579,10 @@
         <v>815635</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>12380107.94</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>15.1785</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>12380107.94</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>1748046</v>
@@ -2600,10 +2601,10 @@
         <v>817322</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>11937495.38</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>14.6056</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>11937495.38</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>1707132</v>
@@ -2622,10 +2623,10 @@
         <v>806971</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>11529698.47</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>14.2876</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>11529698.47</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>1522678</v>
@@ -2644,10 +2645,10 @@
         <v>788479</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>10825702.9</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>13.7299</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>10825702.9</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>1449548.9</v>
@@ -2666,10 +2667,10 @@
         <v>737394</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>9980936.970000001</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>13.5354</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>9980936.970000001</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>1424150.2</v>
@@ -2688,10 +2689,10 @@
         <v>707875</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>9236920.34</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>13.0488</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>9236920.34</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>1343925.31</v>
@@ -2710,10 +2711,10 @@
         <v>686704</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>9178168.199999999</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>13.3655</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>9178168.199999999</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>1265828.99</v>
@@ -2732,10 +2733,10 @@
         <v>645748</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>8705677.939999999</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>13.4815</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>8705677.939999999</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>1211657</v>
@@ -2754,10 +2755,10 @@
         <v>620015</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>8187669.23</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>13.2056</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>8187669.23</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>1228839.11</v>
@@ -2776,10 +2777,10 @@
         <v>597842</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>8072337.66</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>13.5025</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>8072337.66</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>1217032.04</v>
@@ -2798,10 +2799,10 @@
         <v>587572</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>8097082.12</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>13.7806</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>8097082.12</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>1055476</v>
@@ -2820,10 +2821,10 @@
         <v>583919</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>7713624.09</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>13.2101</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>7713624.09</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>1005743</v>
@@ -2842,10 +2843,10 @@
         <v>561316</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>7640287.19</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>13.6114</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>7640287.19</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>964841</v>
@@ -2864,10 +2865,10 @@
         <v>563643</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>7251152.64</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>12.8648</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>7251152.64</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>1005385</v>
@@ -2886,10 +2887,10 @@
         <v>565760</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>7114820</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>12.5757</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>7114820</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>1046699</v>
@@ -2908,10 +2909,10 @@
         <v>551361</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>7062261</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>12.8088</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>7062261</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>1053303</v>
@@ -2930,10 +2931,10 @@
         <v>530980</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>7128459</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>13.4251</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>7128459</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>997213</v>
@@ -2952,10 +2953,10 @@
         <v>516495</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>6659427</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>12.8935</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>6659427</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>1016067</v>
@@ -2974,10 +2975,10 @@
         <v>499080</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>6299496</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>12.6222</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>6299496</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>1007976</v>
@@ -2996,10 +2997,10 @@
         <v>450301</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>5832671</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>12.9528</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>5832671</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>995960</v>
@@ -3018,10 +3019,10 @@
         <v>435407</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>6141937</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>14.1062</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>6141937</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>1002349</v>
@@ -3040,10 +3041,10 @@
         <v>430705</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>5805918</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>13.48</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>5805918</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>1048809</v>
@@ -3062,10 +3063,10 @@
         <v>410247</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>5913830</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>14.4153</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>5913830</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>969475</v>
@@ -3084,10 +3085,10 @@
         <v>393630</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>5136744</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>13.0497</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>5136744</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>990643</v>
@@ -3106,10 +3107,10 @@
         <v>352623</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>4794109</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>13.5956</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>4794109</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>964075</v>
@@ -3128,10 +3129,10 @@
         <v>339880</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>4743765</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>13.9572</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>4743765</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>960837</v>
@@ -3150,10 +3151,10 @@
         <v>333169</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>4940311</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>14.8282</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>4940311</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>911406</v>
@@ -3172,10 +3173,10 @@
         <v>330526</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>4497072</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>13.6058</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>4497072</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>922776</v>
@@ -3194,10 +3195,10 @@
         <v>325719</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>5028649</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>15.4386</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>5028649</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>829274</v>
@@ -3216,10 +3217,10 @@
         <v>320936</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>4470869</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>13.9307</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>4470869</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>836120</v>
@@ -3238,10 +3239,10 @@
         <v>307425</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>4352059</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>14.1565</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>4352059</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>777268</v>
@@ -3260,10 +3261,10 @@
         <v>302155</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>3931294</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>13.0109</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>3931294</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>733120</v>
@@ -3282,10 +3283,10 @@
         <v>295253</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>3908247</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>13.2369</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>3908247</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>751547</v>
@@ -3304,10 +3305,10 @@
         <v>263337</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>3499148</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>13.2877</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>3499148</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>697508</v>
@@ -3326,10 +3327,10 @@
         <v>251085</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>3458181</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>13.7729</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>3458181</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>693971</v>
@@ -3348,10 +3349,10 @@
         <v>248765</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>3357561</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>13.4969</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>3357561</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>661063</v>
@@ -3370,10 +3371,10 @@
         <v>247738</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>3255281</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>13.14</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>3255281</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>650982</v>
@@ -3391,10 +3392,10 @@
         <v>239129</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>3104094</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>12.9808</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>3104094</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>643899</v>
@@ -3412,10 +3413,10 @@
         <v>248719</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>2969665</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>11.9398</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>2969665</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>603829</v>
@@ -3433,10 +3434,10 @@
         <v>243763</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>3049200</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>12.5089</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>3049200</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>578393</v>
@@ -3454,10 +3455,10 @@
         <v>235552</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>2712760</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>11.5166</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>2712760</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>464522</v>
@@ -3475,10 +3476,10 @@
         <v>221240</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>2629099</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>11.8835</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>2629099</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>511498</v>
@@ -3496,10 +3497,10 @@
         <v>205512</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>2619738</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>12.7474</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>2619738</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>464059</v>
@@ -3786,8 +3787,8 @@
   </sheetPr>
   <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3896,7 +3897,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>México</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -3910,7 +3911,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>China, Continental</t>
+          <t>China, mainland</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -3952,7 +3953,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -3966,7 +3967,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>España</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -3980,7 +3981,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Estados Unidos de América</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -3994,7 +3995,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Sudáfrica</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4116,7 +4117,7 @@
   <dimension ref="B2:K45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4215,7 +4216,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>México</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4243,7 +4244,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>España</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4257,7 +4258,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Sudáfrica</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4271,7 +4272,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Países Bajos (Reino de los)</t>
+          <t>Netherlands (Kingdom of the)</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4299,7 +4300,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Egipto</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4313,7 +4314,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4327,7 +4328,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Estados Unidos de América</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4537,8 +4538,8 @@
   </sheetPr>
   <dimension ref="B2:K36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4633,7 +4634,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>Estados Unidos de América</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4647,7 +4648,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Países Bajos (Reino de los)</t>
+          <t>Netherlands (Kingdom of the)</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4661,7 +4662,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Federación de Rusia</t>
+          <t>Russian Federation</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4675,7 +4676,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Alemania</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4703,7 +4704,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Francia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4717,7 +4718,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Reino Unido de Gran Bretaña e Irlanda del Norte</t>
+          <t>United Kingdom of Great Britain and Northern Ireland</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4731,7 +4732,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Polonia</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4745,7 +4746,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Arabia Saudita</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4759,7 +4760,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Emiratos Árabes Unidos</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4773,35 +4774,43 @@
     <row r="22">
       <c r="B22" s="29" t="inlineStr">
         <is>
-          <t>Otros</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C22" s="29" t="n">
-        <v>1396807.8</v>
+        <v>36074.24</v>
       </c>
       <c r="D22" s="31" t="n">
-        <v>0.3486615698926704</v>
+        <v>0.009004604034345288</v>
       </c>
       <c r="E22" s="29" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="29" t="inlineStr">
         <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="C23" s="29" t="n">
+        <v>1360733.56</v>
+      </c>
+      <c r="D23" s="31" t="n">
+        <v>0.3396569658583251</v>
+      </c>
+      <c r="E23" s="29" t="n"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="29" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="C23" s="29" t="n">
+      <c r="C24" s="29" t="n">
         <v>4006199.48</v>
       </c>
-      <c r="D23" s="31" t="n">
+      <c r="D24" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="E23" s="29" t="n"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="29" t="n"/>
-      <c r="C24" s="29" t="n"/>
-      <c r="D24" s="31" t="n"/>
       <c r="E24" s="29" t="n"/>
     </row>
     <row r="25">
@@ -4811,58 +4820,59 @@
       <c r="E25" s="29" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="15" t="n"/>
+      <c r="B26" s="29" t="n"/>
       <c r="C26" s="37" t="n"/>
-      <c r="D26" s="34" t="n"/>
+      <c r="D26" s="31" t="n"/>
+      <c r="E26" s="29" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="15" t="n"/>
-      <c r="C27" s="37" t="n"/>
+      <c r="C27" s="38" t="n"/>
       <c r="D27" s="34" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="15" t="n"/>
-      <c r="C28" s="37" t="n"/>
+      <c r="C28" s="38" t="n"/>
       <c r="D28" s="34" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="15" t="n"/>
-      <c r="C29" s="37" t="n"/>
+      <c r="C29" s="38" t="n"/>
       <c r="D29" s="34" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="15" t="n"/>
-      <c r="C30" s="37" t="n"/>
+      <c r="C30" s="38" t="n"/>
       <c r="D30" s="34" t="n"/>
     </row>
     <row r="31">
       <c r="B31" s="15" t="n"/>
-      <c r="C31" s="37" t="n"/>
+      <c r="C31" s="38" t="n"/>
       <c r="D31" s="34" t="n"/>
     </row>
     <row r="32">
       <c r="B32" s="15" t="n"/>
-      <c r="C32" s="37" t="n"/>
+      <c r="C32" s="38" t="n"/>
       <c r="D32" s="34" t="n"/>
     </row>
     <row r="33">
       <c r="B33" s="15" t="n"/>
-      <c r="C33" s="37" t="n"/>
+      <c r="C33" s="38" t="n"/>
       <c r="D33" s="34" t="n"/>
     </row>
     <row r="34">
       <c r="B34" s="15" t="n"/>
-      <c r="C34" s="37" t="n"/>
+      <c r="C34" s="38" t="n"/>
       <c r="D34" s="34" t="n"/>
     </row>
     <row r="35">
       <c r="B35" s="15" t="n"/>
-      <c r="C35" s="37" t="n"/>
+      <c r="C35" s="38" t="n"/>
       <c r="D35" s="36" t="n"/>
     </row>
     <row r="36">
       <c r="B36" s="15" t="n"/>
-      <c r="C36" s="37" t="n"/>
+      <c r="C36" s="38" t="n"/>
       <c r="D36" s="36" t="n"/>
     </row>
   </sheetData>
@@ -4932,7 +4942,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -5011,10 +5021,10 @@
         <v>312000</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>3787000</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>12.1378</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>3787000</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>146.44</v>
@@ -5033,10 +5043,10 @@
         <v>313000</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>3776000</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>12.0639</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>3776000</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>476.58</v>
@@ -5055,10 +5065,10 @@
         <v>327000</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>3548000</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>10.8502</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>3548000</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>41.23</v>
@@ -5077,10 +5087,10 @@
         <v>322000</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>3687000</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>11.4503</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>3687000</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>101.84</v>
@@ -5099,10 +5109,10 @@
         <v>305000</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>3482000</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>11.4164</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>3482000</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>104.64</v>
@@ -5121,10 +5131,10 @@
         <v>286000</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>3148000</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>11.007</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>3148000</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>37.22</v>
@@ -5143,10 +5153,10 @@
         <v>248000</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>2364000</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>9.532299999999999</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>2364000</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>40.41</v>
@@ -5165,10 +5175,10 @@
         <v>245000</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>2438000</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>9.951000000000001</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>2438000</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>20.29</v>
@@ -5187,10 +5197,10 @@
         <v>268000</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>2950000</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>11.0075</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>2950000</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>12.58</v>
@@ -5209,10 +5219,10 @@
         <v>286410</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>2835020</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>9.8985</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>2835020</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>19.64</v>
@@ -5231,10 +5241,10 @@
         <v>255200</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>2523500</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>9.888299999999999</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>2523500</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>22</v>
@@ -5253,10 +5263,10 @@
         <v>234000</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>2272100</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>9.7098</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>2272100</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>18</v>
@@ -5275,10 +5285,10 @@
         <v>219000</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>2108000</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>9.6256</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>2108000</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>4</v>
@@ -5297,10 +5307,10 @@
         <v>295600</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>2629200</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>8.894500000000001</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>2629200</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>2</v>
@@ -5319,10 +5329,10 @@
         <v>316050</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>2571530</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>8.1365</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>2571530</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>7</v>
@@ -5341,10 +5351,10 @@
         <v>302800</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>2501700</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>8.261899999999999</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>2501700</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>0</v>
@@ -5363,10 +5373,10 @@
         <v>294900</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>2310200</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>7.8338</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>2310200</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>22</v>
@@ -5385,10 +5395,10 @@
         <v>268700</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>2159000</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>8.035</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>2159000</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>0</v>
@@ -5407,10 +5417,10 @@
         <v>78900</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>1033100</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>13.0938</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>1033100</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>0</v>
@@ -5429,10 +5439,10 @@
         <v>167800</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>1493300</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>8.899299999999998</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>1493300</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>0</v>
@@ -5451,10 +5461,10 @@
         <v>146200</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>1439600</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>9.8468</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>1439600</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>1</v>
@@ -5473,10 +5483,10 @@
         <v>161300</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>1413700</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>8.7644</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>1413700</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>0</v>
@@ -5495,10 +5505,10 @@
         <v>164200</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>1377200</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>8.3873</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>1377200</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>0</v>
@@ -5517,10 +5527,10 @@
         <v>169300</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>1491500</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>8.809799999999999</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>1491500</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>1</v>
@@ -5539,10 +5549,10 @@
         <v>139500</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>1259800</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>9.030799999999999</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>1259800</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>25.14</v>
@@ -5561,10 +5571,10 @@
         <v>129800</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>1101300</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>8.4846</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>1101300</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>0</v>
@@ -5583,10 +5593,10 @@
         <v>123700</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>1048400</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>8.475299999999999</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>1048400</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>0</v>
@@ -5605,10 +5615,10 @@
         <v>106000</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>920000</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>8.679200000000002</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>920000</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>0</v>
@@ -5627,10 +5637,10 @@
         <v>95900</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>970100</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>10.1157</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>970100</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>0</v>
@@ -5649,10 +5659,10 @@
         <v>91400</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>923700</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>10.1061</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>923700</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>0</v>
@@ -5671,10 +5681,10 @@
         <v>80000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>930000</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>11.625</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>930000</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>0</v>
@@ -5693,10 +5703,10 @@
         <v>74000</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>700000</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>9.4595</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>700000</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>0</v>
@@ -5715,10 +5725,10 @@
         <v>68000</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>800000</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>11.7647</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>800000</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>0</v>
@@ -5737,10 +5747,10 @@
         <v>65000</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>752000</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>11.5692</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>752000</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>0</v>
@@ -5759,10 +5769,10 @@
         <v>60000</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>690000</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>11.5</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>690000</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>0</v>
@@ -5781,10 +5791,10 @@
         <v>59000</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>600000</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>10.1695</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>600000</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>0</v>
@@ -5803,10 +5813,10 @@
         <v>56000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>600000</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>10.7143</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>600000</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -5825,10 +5835,10 @@
         <v>55000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>600000</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>10.9091</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>600000</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -5847,10 +5857,10 @@
         <v>50000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>450000</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>9</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>450000</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -5869,10 +5879,10 @@
         <v>53000</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>550000</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>10.3774</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>550000</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -5891,10 +5901,10 @@
         <v>50000</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>500000</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>10</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>500000</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -5913,10 +5923,10 @@
         <v>53000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>500000</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>9.433999999999999</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>500000</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>2</v>
@@ -5935,10 +5945,10 @@
         <v>52000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>500000</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>9.615399999999999</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>500000</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>6</v>
@@ -5957,10 +5967,10 @@
         <v>50000</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>485000</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>9.699999999999999</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>485000</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>4</v>
@@ -5979,10 +5989,10 @@
         <v>50000</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>480000</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>9.6</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>480000</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>9</v>
@@ -6001,10 +6011,10 @@
         <v>50000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>500000</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>10</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>500000</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>2</v>
@@ -6023,10 +6033,10 @@
         <v>45000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>400000</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>8.8889</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>400000</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -6045,10 +6055,10 @@
         <v>53000</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>600000</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>11.3208</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>600000</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -6067,10 +6077,10 @@
         <v>52000</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>500000</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>9.615399999999999</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>500000</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>3</v>
@@ -6089,10 +6099,10 @@
         <v>50000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>450000</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>9</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>450000</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -6111,10 +6121,10 @@
         <v>50000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>450000</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>9</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>450000</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>22</v>
@@ -6133,10 +6143,10 @@
         <v>50000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>450000</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>9</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>450000</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -6155,10 +6165,10 @@
         <v>50000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>450000</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>9</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>450000</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -6177,10 +6187,10 @@
         <v>50000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>450000</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>9</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>450000</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>4</v>
@@ -6199,10 +6209,10 @@
         <v>45000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>400000</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>8.8889</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>400000</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>1</v>
@@ -6221,10 +6231,10 @@
         <v>45000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>370000</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>8.222200000000001</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>370000</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -6243,10 +6253,10 @@
         <v>52000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>450000</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>8.653799999999999</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>450000</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>2</v>
@@ -6264,10 +6274,10 @@
         <v>50000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>450000</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>9</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>450000</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -6285,10 +6295,10 @@
         <v>50000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>450000</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>9</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>450000</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -6306,10 +6316,10 @@
         <v>48000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>450000</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>9.375</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>450000</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -6327,10 +6337,10 @@
         <v>47000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>450000</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>9.5745</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>450000</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -6348,10 +6358,10 @@
         <v>47000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>450000</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>9.5745</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>450000</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -6369,10 +6379,10 @@
         <v>36000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>415000</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>11.5278</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>415000</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>84</v>
@@ -6708,7 +6718,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -6787,10 +6797,10 @@
         <v>210735</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>3249216.79</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>15.4185</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>3249216.79</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>36074.24</v>
@@ -6809,10 +6819,10 @@
         <v>201795</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>3110321.12</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>15.4132</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>3110321.12</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>13685.94</v>
@@ -6831,10 +6841,10 @@
         <v>195619</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>2983802.19</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>15.2532</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>2983802.19</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>7579.12</v>
@@ -6853,10 +6863,10 @@
         <v>187481</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>2879023.27</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>15.3564</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>2879023.27</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>2902.57</v>
@@ -6875,10 +6885,10 @@
         <v>183575</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>2701827.72</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>14.7179</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>2701827.72</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>3409.04</v>
@@ -6897,10 +6907,10 @@
         <v>175826</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>2547834.45</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>14.4907</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>2547834.45</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>3980.66</v>
@@ -6919,10 +6929,10 @@
         <v>172255</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>2528173.82</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>14.677</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>2528173.82</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>2927.53</v>
@@ -6941,10 +6951,10 @@
         <v>163466</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>2429839.02</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>14.8645</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>2429839.02</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>2563.29</v>
@@ -6963,10 +6973,10 @@
         <v>161681</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>2342779.55</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>14.4901</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>2342779.55</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>1610.14</v>
@@ -6985,10 +6995,10 @@
         <v>156429</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>2205078.53</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>14.0963</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>2205078.53</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>2887.15</v>
@@ -7007,10 +7017,10 @@
         <v>151765</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>2138737</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>14.0924</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>2138737</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>1214</v>
@@ -7029,10 +7039,10 @@
         <v>150684</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>2070764</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>13.7424</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>2070764</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>1420</v>
@@ -7051,10 +7061,10 @@
         <v>151021</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>2147740</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>14.2215</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>2147740</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>2398</v>
@@ -7073,10 +7083,10 @@
         <v>143869</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>1891403</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>13.1467</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>1891403</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>602</v>
@@ -7095,10 +7105,10 @@
         <v>141752</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>1987453</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>14.0206</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>1987453</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>453</v>
@@ -7117,10 +7127,10 @@
         <v>149653</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>2242539</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>14.9849</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>2242539</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>364</v>
@@ -7139,10 +7149,10 @@
         <v>145632</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>1935909</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>13.2932</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>1935909</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>841</v>
@@ -7161,10 +7171,10 @@
         <v>139761</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>1867078</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>13.3591</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>1867078</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>572</v>
@@ -7183,10 +7193,10 @@
         <v>136966</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>1806784</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>13.1915</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>1806784</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>682</v>
@@ -7205,10 +7215,10 @@
         <v>140824</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>1927515</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>13.6874</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>1927515</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>991</v>
@@ -7227,10 +7237,10 @@
         <v>131668</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>1761552</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>13.3787</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>1761552</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>1667</v>
@@ -7249,10 +7259,10 @@
         <v>127063</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>1725090</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>13.5767</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>1725090</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>1480</v>
@@ -7271,10 +7281,10 @@
         <v>126281</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>1594020</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>12.6228</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>1594020</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>1671</v>
@@ -7293,10 +7303,10 @@
         <v>122755</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>1661220</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>13.5328</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>1661220</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>2404.59</v>
@@ -7315,10 +7325,10 @@
         <v>112045</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>1367502</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>12.2049</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>1367502</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>1493</v>
@@ -7337,10 +7347,10 @@
         <v>106288</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>1186298</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>11.1612</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>1186298</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>819</v>
@@ -7359,10 +7369,10 @@
         <v>98562</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>1126422</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>11.4286</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>1126422</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>3169</v>
@@ -7381,10 +7391,10 @@
         <v>97977</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>1131303</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>11.5466</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>1131303</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>2610</v>
@@ -7403,10 +7413,10 @@
         <v>89365</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>984110</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>11.0123</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>984110</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>1087</v>
@@ -7425,10 +7435,10 @@
         <v>83624</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>849239</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>10.1554</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>849239</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>433</v>
@@ -7447,10 +7457,10 @@
         <v>83149</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>758535</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>9.1226</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>758535</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>172</v>
@@ -7469,10 +7479,10 @@
         <v>80846</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>816912</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>10.1045</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>816912</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>248</v>
@@ -7491,10 +7501,10 @@
         <v>75382</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>741193</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>9.8325</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>741193</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>165</v>
@@ -7513,10 +7523,10 @@
         <v>72990</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>695871</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>9.533799999999999</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>695871</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>94</v>
@@ -7535,10 +7545,10 @@
         <v>74632</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>801067</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>10.7336</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>801067</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>122</v>
@@ -7557,10 +7567,10 @@
         <v>75426</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>752325</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>9.974299999999999</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>752325</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>102</v>
@@ -7579,10 +7589,10 @@
         <v>69818</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>734063</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>10.514</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>734063</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>1959</v>
@@ -7601,10 +7611,10 @@
         <v>70757</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>754738</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>10.6666</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>754738</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>757</v>
@@ -7623,10 +7633,10 @@
         <v>72495</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>889349</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>12.2677</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>889349</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>3993</v>
@@ -7645,10 +7655,10 @@
         <v>72409</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>899089</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>12.4168</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>899089</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>3022</v>
@@ -7667,10 +7677,10 @@
         <v>75478</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>717110</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>9.5009</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>717110</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -7689,10 +7699,10 @@
         <v>74358</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>797748</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>10.7285</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>797748</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>344</v>
@@ -7711,10 +7721,10 @@
         <v>65402</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>650777</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>9.9504</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>650777</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>2194</v>
@@ -7733,10 +7743,10 @@
         <v>60985</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>602626</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>9.881500000000001</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>602626</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>937</v>
@@ -7755,10 +7765,10 @@
         <v>54408</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>503288</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>9.250299999999999</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>503288</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>447</v>
@@ -7777,10 +7787,10 @@
         <v>50769</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>453915</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>8.940799999999999</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>453915</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>787</v>
@@ -7799,10 +7809,10 @@
         <v>53132</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>483184</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>9.093999999999999</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>483184</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>726</v>
@@ -7821,10 +7831,10 @@
         <v>48705</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>463207</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>9.5105</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>463207</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>461</v>
@@ -7843,10 +7853,10 @@
         <v>50722</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>468292</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>9.2325</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>468292</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>447</v>
@@ -7865,10 +7875,10 @@
         <v>50949</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>470739</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>9.2394</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>470739</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>701</v>
@@ -7887,10 +7897,10 @@
         <v>51025</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>484750</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>9.500200000000001</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>484750</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>94</v>
@@ -7909,10 +7919,10 @@
         <v>51124</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>476390</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>9.318299999999999</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>476390</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>1092</v>
@@ -7931,10 +7941,10 @@
         <v>50970</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>514640</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>10.0969</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>514640</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>923</v>
@@ -7953,10 +7963,10 @@
         <v>26475</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>240699</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>9.0916</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>240699</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>1014</v>
@@ -7975,10 +7985,10 @@
         <v>24301</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>223341</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>9.1906</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>223341</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>1263</v>
@@ -7997,10 +8007,10 @@
         <v>22297</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>208520</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>9.351899999999999</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>208520</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>1822</v>
@@ -8019,10 +8029,10 @@
         <v>22341</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>208741</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>9.343399999999999</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>208741</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>2307</v>
@@ -8040,10 +8050,10 @@
         <v>23115</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>218000</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>9.431100000000001</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>218000</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>2634</v>
@@ -8061,10 +8071,10 @@
         <v>22543</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>209495</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>9.293100000000001</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>209495</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>2541</v>
@@ -8082,10 +8092,10 @@
         <v>22074</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>190639</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>8.6364</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>190639</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>2990</v>
@@ -8103,10 +8113,10 @@
         <v>19699</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>170757</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>8.668299999999999</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>170757</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>3340</v>
@@ -8124,10 +8134,10 @@
         <v>18498</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>147787</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>7.9894</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>147787</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>2870</v>
@@ -8145,10 +8155,10 @@
         <v>16689</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>122660</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>7.3498</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>122660</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>2313</v>
@@ -8484,7 +8494,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -8563,10 +8573,10 @@
         <v>100106</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>2381336.86</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>23.7883</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>2381336.86</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>15616.81</v>
@@ -8585,10 +8595,10 @@
         <v>100528</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>2371992.15</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>23.5952</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>2371992.15</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>14365.71</v>
@@ -8607,10 +8617,10 @@
         <v>100964</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>2399715.11</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>23.768</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>2399715.11</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>15621.29</v>
@@ -8629,10 +8639,10 @@
         <v>101390</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>2372303.33</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>23.3979</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>2372303.33</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>10696.7</v>
@@ -8651,10 +8661,10 @@
         <v>97801</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>2343958</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>23.9665</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>2343958</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>10038.1</v>
@@ -8673,10 +8683,10 @@
         <v>99624</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>2482884</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>24.9225</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>2482884</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>11043.99</v>
@@ -8695,10 +8705,10 @@
         <v>95860</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>2290068</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>23.8896</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>2290068</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>13792.04</v>
@@ -8717,10 +8727,10 @@
         <v>97920</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>2258922</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>23.0691</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>2258922</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>12065.37</v>
@@ -8739,10 +8749,10 @@
         <v>106000</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>2196050</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>20.7175</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>2196050</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>14667.26</v>
@@ -8761,10 +8771,10 @@
         <v>96000</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>2130500</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>22.1927</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>2130500</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>29811.49</v>
@@ -8783,10 +8793,10 @@
         <v>97000</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>2014000</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>20.7629</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>2014000</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>9376</v>
@@ -8805,10 +8815,10 @@
         <v>92260</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>1942570</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>21.0554</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>1942570</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>9010</v>
@@ -8827,10 +8837,10 @@
         <v>85000</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>1776080</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>20.8951</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>1776080</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>7577</v>
@@ -8849,10 +8859,10 @@
         <v>115000</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>2040500</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>17.7435</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>2040500</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>7767</v>
@@ -8871,10 +8881,10 @@
         <v>167000</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>3673300</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>21.9958</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>3673300</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>8952</v>
@@ -8893,10 +8903,10 @@
         <v>124000</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>4128500</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>33.2944</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>4128500</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>5307</v>
@@ -8915,10 +8925,10 @@
         <v>62000</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>3650000</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>58.871</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>3650000</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>6008</v>
@@ -8937,10 +8947,10 @@
         <v>55000</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>700000</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>12.7273</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>700000</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>4570</v>
@@ -8959,10 +8969,10 @@
         <v>50000</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>646000</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>12.92</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>646000</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>5275</v>
@@ -8981,10 +8991,10 @@
         <v>50300</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>632000</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>12.5646</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>632000</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>6530</v>
@@ -9003,10 +9013,10 @@
         <v>47500</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>565000</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>11.8947</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>565000</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>4956</v>
@@ -9025,10 +9035,10 @@
         <v>41000</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>500000</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>12.1951</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>500000</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>3914</v>
@@ -9047,10 +9057,10 @@
         <v>40000</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>376000</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>9.4</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>376000</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>5040</v>
@@ -9069,10 +9079,10 @@
         <v>38000</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>279000</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>7.3421</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>279000</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>4837.24</v>
@@ -9091,10 +9101,10 @@
         <v>32000</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>346000</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>10.8125</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>346000</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>2482</v>
@@ -9113,10 +9123,10 @@
         <v>28000</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>275000</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>9.821399999999999</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>275000</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>494</v>
@@ -9135,10 +9145,10 @@
         <v>29450</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>220000</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>7.4703</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>220000</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>511</v>
@@ -9157,10 +9167,10 @@
         <v>27000</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>192000</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>7.1111</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>192000</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>915</v>
@@ -9179,10 +9189,10 @@
         <v>25000</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>189000</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>7.56</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>189000</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>211</v>
@@ -9201,10 +9211,10 @@
         <v>20000</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>155000</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>7.75</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>155000</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>274</v>
@@ -9223,10 +9233,10 @@
         <v>21000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>7.1429</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>150000</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>59</v>
@@ -9245,10 +9255,10 @@
         <v>26000</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>116000</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>4.4615</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>116000</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>101</v>
@@ -9267,10 +9277,10 @@
         <v>18000</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>142500</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>7.9167</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>142500</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>66</v>
@@ -9289,10 +9299,10 @@
         <v>24000</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>110000</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>4.5833</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>110000</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>6</v>
@@ -9311,10 +9321,10 @@
         <v>29000</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>103000</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>3.5517</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>103000</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>41</v>
@@ -9333,10 +9343,10 @@
         <v>15000</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>58000</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>3.8667</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>58000</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>16</v>
@@ -9355,10 +9365,10 @@
         <v>20000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>74000</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>3.7</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>74000</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>17</v>
@@ -9377,10 +9387,10 @@
         <v>15000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>59000</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>3.9333</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>59000</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>494</v>
@@ -9399,10 +9409,10 @@
         <v>17000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>41500</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>2.4412</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>41500</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -9421,10 +9431,10 @@
         <v>11000</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>34000</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>3.0909</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>34000</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -9443,10 +9453,10 @@
         <v>10000</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>3</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>30000</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -9465,10 +9475,10 @@
         <v>7300</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>22000</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>3.0137</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>22000</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -9487,10 +9497,10 @@
         <v>6000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>18000</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>3</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>18000</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -9509,10 +9519,10 @@
         <v>5500</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>16000</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>2.9091</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>16000</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -9531,10 +9541,10 @@
         <v>4500</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>13000</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>2.8889</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>13000</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -9553,10 +9563,10 @@
         <v>3100</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>9000</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>2.9032</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>9000</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -9575,10 +9585,10 @@
         <v>3100</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>9000</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>2.9032</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>9000</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -9597,10 +9607,10 @@
         <v>2100</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>2.8571</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>6000</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -9619,10 +9629,10 @@
         <v>3100</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>8000</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>2.5806</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>8000</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -9641,10 +9651,10 @@
         <v>3100</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>8000</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>2.5806</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>8000</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -9663,10 +9673,10 @@
         <v>2700</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>7000</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>2.5926</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>7000</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -9685,10 +9695,10 @@
         <v>2700</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>7000</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>2.5926</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>7000</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -9707,10 +9717,10 @@
         <v>2100</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>5500</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>2.619</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>5500</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -9729,10 +9739,10 @@
         <v>2400</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>2.5</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>6000</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -9751,10 +9761,10 @@
         <v>2400</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>2.5</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>6000</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -9773,10 +9783,10 @@
         <v>2400</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>2.5</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>6000</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -9795,10 +9805,10 @@
         <v>2400</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>2.5</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>6000</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -9816,10 +9826,10 @@
         <v>2400</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>2.5</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>6000</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -9837,10 +9847,10 @@
         <v>2400</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>2.5</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>6000</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -9858,10 +9868,10 @@
         <v>2400</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>2.5</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>6000</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -9879,10 +9889,10 @@
         <v>1600</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>4000</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>2.5</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>4000</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -9900,10 +9910,10 @@
         <v>2000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>2.5</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>5000</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -9921,10 +9931,10 @@
         <v>1600</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>4000</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>2.5</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>4000</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -10260,7 +10270,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -10339,10 +10349,10 @@
         <v>56439</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>2325726</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>41.20780000000001</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>2325726</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>4172.26</v>
@@ -10361,10 +10371,10 @@
         <v>55426</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>1323000</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>23.8697</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>1323000</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>5742.06</v>
@@ -10383,10 +10393,10 @@
         <v>52233</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>1550000</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>29.6747</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>1550000</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>3878.47</v>
@@ -10405,10 +10415,10 @@
         <v>46935</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>1188517</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>25.3226</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>1188517</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>3304.3</v>
@@ -10427,10 +10437,10 @@
         <v>40155</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>950000</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>23.6583</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>950000</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>2452.99</v>
@@ -10449,10 +10459,10 @@
         <v>35911</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>1100000</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>30.6313</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>1100000</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>3185.2</v>
@@ -10471,10 +10481,10 @@
         <v>32428</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>1007133</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>31.0575</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>1007133</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>4024.1</v>
@@ -10493,10 +10503,10 @@
         <v>30033</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>850600</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>28.3222</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>850600</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>3081.61</v>
@@ -10515,10 +10525,10 @@
         <v>28570</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>750550</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>26.2706</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>750550</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>2982.2</v>
@@ -10537,10 +10547,10 @@
         <v>27665</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>725230</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>26.2147</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>725230</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>2419.04</v>
@@ -10559,10 +10569,10 @@
         <v>27425</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>726283</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>26.4825</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>726283</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>1983</v>
@@ -10581,10 +10591,10 @@
         <v>26563</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>710211</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>26.7369</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>710211</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>3094</v>
@@ -10603,10 +10613,10 @@
         <v>24552</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>790211</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>32.1852</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>790211</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>670</v>
@@ -10625,10 +10635,10 @@
         <v>25360</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>787063</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>31.0356</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>787063</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>1722</v>
@@ -10647,10 +10657,10 @@
         <v>25083</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>783587</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>31.2398</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>783587</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>1808</v>
@@ -10669,10 +10679,10 @@
         <v>25161</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>672452</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>26.726</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>672452</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>3137</v>
@@ -10691,10 +10701,10 @@
         <v>24535</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>651767</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>26.5648</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>651767</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>4949</v>
@@ -10713,10 +10723,10 @@
         <v>25164</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>710401</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>28.2308</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>710401</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>1988</v>
@@ -10735,10 +10745,10 @@
         <v>25000</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>600000</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>24</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>600000</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>2560</v>
@@ -10757,10 +10767,10 @@
         <v>25000</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>600000</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>24</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>600000</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>2661</v>
@@ -10779,10 +10789,10 @@
         <v>24500</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>550000</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>22.449</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>550000</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>5801</v>
@@ -10801,10 +10811,10 @@
         <v>23850</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>525000</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>22.0126</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>525000</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>3659</v>
@@ -10823,10 +10833,10 @@
         <v>23330</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>510000</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>21.8603</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>510000</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>39</v>
@@ -10845,10 +10855,10 @@
         <v>23085</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>460000</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>19.9264</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>460000</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>19.73</v>
@@ -10867,10 +10877,10 @@
         <v>22266</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>520000</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>23.354</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>520000</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>84</v>
@@ -10889,10 +10899,10 @@
         <v>21566</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>390000</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>18.084</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>390000</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>25</v>
@@ -10911,10 +10921,10 @@
         <v>21727</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>270000</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>12.4269</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>270000</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>1889</v>
@@ -10933,10 +10943,10 @@
         <v>20976</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>401000</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>19.1171</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>401000</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>1522</v>
@@ -10955,10 +10965,10 @@
         <v>20553</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>418000</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>20.3377</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>418000</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>2019</v>
@@ -10977,10 +10987,10 @@
         <v>20492</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>470000</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>22.9358</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>470000</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>3829</v>
@@ -10999,10 +11009,10 @@
         <v>19837</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>440000</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>22.1808</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>440000</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>5784</v>
@@ -11021,10 +11031,10 @@
         <v>15500</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>420000</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>27.0968</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>420000</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>138</v>
@@ -11043,10 +11053,10 @@
         <v>15320</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>429000</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>28.0026</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>429000</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>344</v>
@@ -11065,10 +11075,10 @@
         <v>14967</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>357000</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>23.8525</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>357000</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>158</v>
@@ -11087,10 +11097,10 @@
         <v>14133</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>335000</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>23.7034</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>335000</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>0</v>
@@ -11109,10 +11119,10 @@
         <v>13940</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>360000</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>25.825</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>360000</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>1893</v>
@@ -11131,10 +11141,10 @@
         <v>12800</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>340000</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>26.5625</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>340000</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>1063</v>
@@ -11153,10 +11163,10 @@
         <v>11667</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>310000</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>26.5707</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>310000</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>2256</v>
@@ -11175,10 +11185,10 @@
         <v>10993</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>188000</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>17.1018</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>188000</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -11197,10 +11207,10 @@
         <v>11850</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>317500</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>26.7932</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>317500</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>372</v>
@@ -11219,10 +11229,10 @@
         <v>11750</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>300000</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>25.5319</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>300000</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -11241,10 +11251,10 @@
         <v>11433</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>311000</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>27.202</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>311000</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -11263,10 +11273,10 @@
         <v>11200</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>290000</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>25.8929</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>290000</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -11285,10 +11295,10 @@
         <v>10767</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>283000</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>26.284</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>283000</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -11307,10 +11317,10 @@
         <v>10617</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>280000</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>26.3728</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>280000</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -11329,10 +11339,10 @@
         <v>10000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>243000</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>24.3</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>243000</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -11351,10 +11361,10 @@
         <v>9333</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>325000</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>34.8227</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>325000</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -11373,10 +11383,10 @@
         <v>8333</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>277500</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>33.3013</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>277500</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -11395,10 +11405,10 @@
         <v>7667</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>290000</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>37.8244</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>290000</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -11417,10 +11427,10 @@
         <v>5733</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>265000</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>46.2236</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>265000</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -11439,10 +11449,10 @@
         <v>5300</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>122375</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>23.0896</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>122375</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -11461,10 +11471,10 @@
         <v>5283</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>149200</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>28.2415</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>149200</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -11483,10 +11493,10 @@
         <v>4993</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>141500</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>28.3397</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>141500</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -11505,10 +11515,10 @@
         <v>4787</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>126000</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>26.3213</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>126000</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -11527,10 +11537,10 @@
         <v>4697</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>121494</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>25.8663</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>121494</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -11549,10 +11559,10 @@
         <v>4637</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>130000</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>28.0354</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>130000</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -11571,10 +11581,10 @@
         <v>4917</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>90000</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>18.3038</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>90000</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -11592,10 +11602,10 @@
         <v>4667</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>84500</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>18.1058</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>84500</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -11613,10 +11623,10 @@
         <v>3637</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>78500</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>21.5837</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>78500</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -11634,10 +11644,10 @@
         <v>3400</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>37180</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>10.9353</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>37180</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -11655,10 +11665,10 @@
         <v>3023</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>78876</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>26.092</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>78876</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -11676,10 +11686,10 @@
         <v>2917</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>74409</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>25.5087</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>74409</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -11697,10 +11707,10 @@
         <v>2877</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>70440</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>24.4838</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>70440</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -12036,7 +12046,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -12115,10 +12125,10 @@
         <v>58368</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>1998272.53</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>34.2359</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>1998272.53</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>1450.21</v>
@@ -12137,10 +12147,10 @@
         <v>61497</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>2141365</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>34.8206</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>2141365</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>2149.49</v>
@@ -12159,10 +12169,10 @@
         <v>59711</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>2015989</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>33.7624</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>2015989</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>2225.11</v>
@@ -12181,10 +12191,10 @@
         <v>34392</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>1150000</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>33.4378</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>1150000</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>3391.82</v>
@@ -12203,10 +12213,10 @@
         <v>50002</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>1676403</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>33.527</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>1676403</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>709.6900000000001</v>
@@ -12225,10 +12235,10 @@
         <v>57665</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>1989400</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>34.49930000000001</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>1989400</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>870.33</v>
@@ -12247,10 +12257,10 @@
         <v>53744</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>1676000</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>31.1849</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>1676000</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>2898.15</v>
@@ -12269,10 +12279,10 @@
         <v>51926</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>1678337</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>32.3217</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>1678337</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>3051.56</v>
@@ -12291,10 +12301,10 @@
         <v>50616</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>1561606</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>30.852</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>1561606</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>137.21</v>
@@ -12313,10 +12323,10 @@
         <v>29756</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>953890</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>32.0574</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>953890</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>118.08</v>
@@ -12335,10 +12345,10 @@
         <v>41000</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>1485963</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>36.243</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>1485963</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>966</v>
@@ -12357,10 +12367,10 @@
         <v>46794</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>1456069</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>31.1166</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>1456069</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>331</v>
@@ -12379,10 +12389,10 @@
         <v>48628</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>1756351</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>36.1181</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>1756351</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>1177</v>
@@ -12401,10 +12411,10 @@
         <v>43575</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>1113375</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>25.5508</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>1113375</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>6524</v>
@@ -12423,10 +12433,10 @@
         <v>49601</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>1425529</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>28.74</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>1425529</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>4837</v>
@@ -12445,10 +12455,10 @@
         <v>53000</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>1362190</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>25.7017</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>1362190</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>238</v>
@@ -12467,10 +12477,10 @@
         <v>55000</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>1400000</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>25.4545</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>1400000</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>23</v>
@@ -12489,10 +12499,10 @@
         <v>55000</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>1470000</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>26.7273</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>1470000</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>22</v>
@@ -12511,10 +12521,10 @@
         <v>52000</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>1498410</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>28.8156</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>1498410</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>0</v>
@@ -12533,10 +12543,10 @@
         <v>45000</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>1340150</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>29.7811</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>1340150</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>23</v>
@@ -12555,10 +12565,10 @@
         <v>44000</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>1236280</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>28.0973</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>1236280</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>37</v>
@@ -12577,10 +12587,10 @@
         <v>42000</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>1313270</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>31.2683</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>1313270</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>94</v>
@@ -12599,10 +12609,10 @@
         <v>40000</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>1217666</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>30.4417</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>1217666</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>322</v>
@@ -12621,10 +12631,10 @@
         <v>34000</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>1171498</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>34.4558</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>1171498</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>231.99</v>
@@ -12643,10 +12653,10 @@
         <v>38000</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>1042657</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>27.4383</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>1042657</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>243</v>
@@ -12665,10 +12675,10 @@
         <v>38526</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>1020975</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>26.5009</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>1020975</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>163</v>
@@ -12687,10 +12697,10 @@
         <v>36351</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>968763</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>26.6502</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>968763</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>194</v>
@@ -12709,10 +12719,10 @@
         <v>29832</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>800654</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>26.8388</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>800654</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>105</v>
@@ -12731,10 +12741,10 @@
         <v>27915</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>755604</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>27.068</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>755604</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>59</v>
@@ -12753,10 +12763,10 @@
         <v>23165</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>681275</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>29.4097</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>681275</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>553</v>
@@ -12775,10 +12785,10 @@
         <v>22099</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>612200</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>27.7026</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>612200</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>3</v>
@@ -12797,10 +12807,10 @@
         <v>24974</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>660700</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>26.4555</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>660700</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>91</v>
@@ -12819,10 +12829,10 @@
         <v>23921</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>656000</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>27.4236</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>656000</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>0</v>
@@ -12841,10 +12851,10 @@
         <v>21123</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>534100</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>25.2852</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>534100</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>0</v>
@@ -12863,10 +12873,10 @@
         <v>21010</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>301200</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>14.336</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>301200</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>0</v>
@@ -12885,10 +12895,10 @@
         <v>22600</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>516500</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>22.854</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>516500</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>0</v>
@@ -12907,10 +12917,10 @@
         <v>21650</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>528300</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>24.4018</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>528300</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -12929,10 +12939,10 @@
         <v>21670</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>481000</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>22.1966</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>481000</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>35</v>
@@ -12951,10 +12961,10 @@
         <v>20750</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>460000</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>22.1687</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>460000</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>51</v>
@@ -12973,10 +12983,10 @@
         <v>20280</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>367600</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>18.1262</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>367600</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>46</v>
@@ -12995,10 +13005,10 @@
         <v>20100</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>357000</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>17.7612</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>357000</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -13017,10 +13027,10 @@
         <v>20850</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>384000</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>18.4173</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>384000</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -13039,10 +13049,10 @@
         <v>19600</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>409000</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>20.8673</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>409000</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>1208</v>
@@ -13061,10 +13071,10 @@
         <v>19220</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>396000</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>20.6035</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>396000</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>429</v>
@@ -13080,10 +13090,10 @@
         <v>1979</v>
       </c>
       <c r="C56" s="29" t="inlineStr"/>
-      <c r="D56" s="29" t="inlineStr"/>
-      <c r="E56" s="29" t="n">
+      <c r="D56" s="29" t="n">
         <v>301000</v>
       </c>
+      <c r="E56" s="29" t="inlineStr"/>
       <c r="F56" s="29" t="n">
         <v>666</v>
       </c>
@@ -13098,10 +13108,10 @@
         <v>1978</v>
       </c>
       <c r="C57" s="29" t="inlineStr"/>
-      <c r="D57" s="29" t="inlineStr"/>
-      <c r="E57" s="29" t="n">
+      <c r="D57" s="29" t="n">
         <v>280000</v>
       </c>
+      <c r="E57" s="29" t="inlineStr"/>
       <c r="F57" s="29" t="n">
         <v>196</v>
       </c>
@@ -13116,10 +13126,10 @@
         <v>1977</v>
       </c>
       <c r="C58" s="29" t="inlineStr"/>
-      <c r="D58" s="29" t="inlineStr"/>
-      <c r="E58" s="29" t="n">
+      <c r="D58" s="29" t="n">
         <v>320000</v>
       </c>
+      <c r="E58" s="29" t="inlineStr"/>
       <c r="F58" s="29" t="n">
         <v>0</v>
       </c>
@@ -13134,10 +13144,10 @@
         <v>1976</v>
       </c>
       <c r="C59" s="29" t="inlineStr"/>
-      <c r="D59" s="29" t="inlineStr"/>
-      <c r="E59" s="29" t="n">
+      <c r="D59" s="29" t="n">
         <v>247000</v>
       </c>
+      <c r="E59" s="29" t="inlineStr"/>
       <c r="F59" s="29" t="n">
         <v>0</v>
       </c>
@@ -13152,10 +13162,10 @@
         <v>1975</v>
       </c>
       <c r="C60" s="29" t="inlineStr"/>
-      <c r="D60" s="29" t="inlineStr"/>
-      <c r="E60" s="29" t="n">
+      <c r="D60" s="29" t="n">
         <v>339000</v>
       </c>
+      <c r="E60" s="29" t="inlineStr"/>
       <c r="F60" s="29" t="n">
         <v>0</v>
       </c>
@@ -13170,10 +13180,10 @@
         <v>1974</v>
       </c>
       <c r="C61" s="29" t="inlineStr"/>
-      <c r="D61" s="29" t="inlineStr"/>
-      <c r="E61" s="29" t="n">
+      <c r="D61" s="29" t="n">
         <v>306000</v>
       </c>
+      <c r="E61" s="29" t="inlineStr"/>
       <c r="F61" s="29" t="n">
         <v>0</v>
       </c>
@@ -13188,10 +13198,10 @@
         <v>1973</v>
       </c>
       <c r="C62" s="29" t="inlineStr"/>
-      <c r="D62" s="29" t="inlineStr"/>
-      <c r="E62" s="29" t="n">
+      <c r="D62" s="29" t="n">
         <v>232770</v>
       </c>
+      <c r="E62" s="29" t="inlineStr"/>
       <c r="F62" s="29" t="n">
         <v>0</v>
       </c>
@@ -13206,10 +13216,10 @@
         <v>1972</v>
       </c>
       <c r="C63" s="29" t="inlineStr"/>
-      <c r="D63" s="29" t="inlineStr"/>
-      <c r="E63" s="29" t="n">
+      <c r="D63" s="29" t="n">
         <v>186000</v>
       </c>
+      <c r="E63" s="29" t="inlineStr"/>
       <c r="F63" s="29" t="n">
         <v>0</v>
       </c>
@@ -13224,10 +13234,10 @@
         <v>1971</v>
       </c>
       <c r="C64" s="29" t="inlineStr"/>
-      <c r="D64" s="29" t="inlineStr"/>
-      <c r="E64" s="29" t="n">
+      <c r="D64" s="29" t="n">
         <v>198600</v>
       </c>
+      <c r="E64" s="29" t="inlineStr"/>
       <c r="F64" s="29" t="n">
         <v>0</v>
       </c>
@@ -13242,10 +13252,10 @@
         <v>1970</v>
       </c>
       <c r="C65" s="29" t="inlineStr"/>
-      <c r="D65" s="29" t="inlineStr"/>
-      <c r="E65" s="29" t="n">
+      <c r="D65" s="29" t="n">
         <v>202457</v>
       </c>
+      <c r="E65" s="29" t="inlineStr"/>
       <c r="F65" s="29" t="n">
         <v>31</v>
       </c>
@@ -13260,10 +13270,10 @@
         <v>1969</v>
       </c>
       <c r="C66" s="29" t="inlineStr"/>
-      <c r="D66" s="29" t="inlineStr"/>
-      <c r="E66" s="29" t="n">
+      <c r="D66" s="29" t="n">
         <v>194000</v>
       </c>
+      <c r="E66" s="29" t="inlineStr"/>
       <c r="F66" s="29" t="n">
         <v>0</v>
       </c>
@@ -13278,10 +13288,10 @@
         <v>1968</v>
       </c>
       <c r="C67" s="29" t="inlineStr"/>
-      <c r="D67" s="29" t="inlineStr"/>
-      <c r="E67" s="29" t="n">
+      <c r="D67" s="29" t="n">
         <v>179000</v>
       </c>
+      <c r="E67" s="29" t="inlineStr"/>
       <c r="F67" s="29" t="n">
         <v>10</v>
       </c>
@@ -13296,10 +13306,10 @@
         <v>1967</v>
       </c>
       <c r="C68" s="29" t="inlineStr"/>
-      <c r="D68" s="29" t="inlineStr"/>
-      <c r="E68" s="29" t="n">
+      <c r="D68" s="29" t="n">
         <v>74600</v>
       </c>
+      <c r="E68" s="29" t="inlineStr"/>
       <c r="F68" s="29" t="n">
         <v>13</v>
       </c>
@@ -13313,10 +13323,10 @@
         <v>1966</v>
       </c>
       <c r="C69" s="29" t="inlineStr"/>
-      <c r="D69" s="29" t="inlineStr"/>
-      <c r="E69" s="29" t="n">
+      <c r="D69" s="29" t="n">
         <v>89000</v>
       </c>
+      <c r="E69" s="29" t="inlineStr"/>
       <c r="F69" s="29" t="n">
         <v>300</v>
       </c>
@@ -13330,10 +13340,10 @@
         <v>1965</v>
       </c>
       <c r="C70" s="29" t="inlineStr"/>
-      <c r="D70" s="29" t="inlineStr"/>
-      <c r="E70" s="29" t="n">
+      <c r="D70" s="29" t="n">
         <v>70000</v>
       </c>
+      <c r="E70" s="29" t="inlineStr"/>
       <c r="F70" s="29" t="n">
         <v>642</v>
       </c>
@@ -13347,10 +13357,10 @@
         <v>1964</v>
       </c>
       <c r="C71" s="29" t="inlineStr"/>
-      <c r="D71" s="29" t="inlineStr"/>
-      <c r="E71" s="29" t="n">
+      <c r="D71" s="29" t="n">
         <v>79000</v>
       </c>
+      <c r="E71" s="29" t="inlineStr"/>
       <c r="F71" s="29" t="n">
         <v>87</v>
       </c>
@@ -13364,10 +13374,10 @@
         <v>1963</v>
       </c>
       <c r="C72" s="29" t="inlineStr"/>
-      <c r="D72" s="29" t="inlineStr"/>
-      <c r="E72" s="29" t="n">
+      <c r="D72" s="29" t="n">
         <v>79300</v>
       </c>
+      <c r="E72" s="29" t="inlineStr"/>
       <c r="F72" s="29" t="n">
         <v>472</v>
       </c>
@@ -13381,10 +13391,10 @@
         <v>1962</v>
       </c>
       <c r="C73" s="29" t="inlineStr"/>
-      <c r="D73" s="29" t="inlineStr"/>
-      <c r="E73" s="29" t="n">
+      <c r="D73" s="29" t="n">
         <v>82000</v>
       </c>
+      <c r="E73" s="29" t="inlineStr"/>
       <c r="F73" s="29" t="n">
         <v>200</v>
       </c>
@@ -13398,10 +13408,10 @@
         <v>1961</v>
       </c>
       <c r="C74" s="29" t="inlineStr"/>
-      <c r="D74" s="29" t="inlineStr"/>
-      <c r="E74" s="29" t="n">
+      <c r="D74" s="29" t="n">
         <v>86600</v>
       </c>
+      <c r="E74" s="29" t="inlineStr"/>
       <c r="F74" s="29" t="n">
         <v>393</v>
       </c>
